--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="552">
   <si>
     <t>CA00000001</t>
   </si>
@@ -298,6 +298,1380 @@
   </si>
   <si>
     <t>V000007010</t>
+  </si>
+  <si>
+    <t>CA00000003</t>
+  </si>
+  <si>
+    <t>V000000087</t>
+  </si>
+  <si>
+    <t>V000000088</t>
+  </si>
+  <si>
+    <t>V000000089</t>
+  </si>
+  <si>
+    <t>V000000090</t>
+  </si>
+  <si>
+    <t>V000000091</t>
+  </si>
+  <si>
+    <t>V000000092</t>
+  </si>
+  <si>
+    <t>V000000093</t>
+  </si>
+  <si>
+    <t>V000000094</t>
+  </si>
+  <si>
+    <t>V000000095</t>
+  </si>
+  <si>
+    <t>V000000096</t>
+  </si>
+  <si>
+    <t>V000000097</t>
+  </si>
+  <si>
+    <t>V000000098</t>
+  </si>
+  <si>
+    <t>V000000099</t>
+  </si>
+  <si>
+    <t>V000000100</t>
+  </si>
+  <si>
+    <t>V000000101</t>
+  </si>
+  <si>
+    <t>V000000102</t>
+  </si>
+  <si>
+    <t>V000000105</t>
+  </si>
+  <si>
+    <t>V000000106</t>
+  </si>
+  <si>
+    <t>V000000107</t>
+  </si>
+  <si>
+    <t>V000000108</t>
+  </si>
+  <si>
+    <t>V000000109</t>
+  </si>
+  <si>
+    <t>V000000110</t>
+  </si>
+  <si>
+    <t>V000000111</t>
+  </si>
+  <si>
+    <t>V000000112</t>
+  </si>
+  <si>
+    <t>V000000113</t>
+  </si>
+  <si>
+    <t>V000000114</t>
+  </si>
+  <si>
+    <t>V000000115</t>
+  </si>
+  <si>
+    <t>V000000117</t>
+  </si>
+  <si>
+    <t>V000000118</t>
+  </si>
+  <si>
+    <t>V000000119</t>
+  </si>
+  <si>
+    <t>V000000120</t>
+  </si>
+  <si>
+    <t>V000000121</t>
+  </si>
+  <si>
+    <t>V000007020</t>
+  </si>
+  <si>
+    <t>V000007021</t>
+  </si>
+  <si>
+    <t>V000007022</t>
+  </si>
+  <si>
+    <t>CA00000004</t>
+  </si>
+  <si>
+    <t>CA00000005</t>
+  </si>
+  <si>
+    <t>CA00000006</t>
+  </si>
+  <si>
+    <t>CA00000007</t>
+  </si>
+  <si>
+    <t>CA00000008</t>
+  </si>
+  <si>
+    <t>CA00000009</t>
+  </si>
+  <si>
+    <t>CA00000010</t>
+  </si>
+  <si>
+    <t>CA00000011</t>
+  </si>
+  <si>
+    <t>CA00000012</t>
+  </si>
+  <si>
+    <t>V000000132</t>
+  </si>
+  <si>
+    <t>V000000133</t>
+  </si>
+  <si>
+    <t>V000000134</t>
+  </si>
+  <si>
+    <t>V000000135</t>
+  </si>
+  <si>
+    <t>V000000136</t>
+  </si>
+  <si>
+    <t>V000000137</t>
+  </si>
+  <si>
+    <t>V000000138</t>
+  </si>
+  <si>
+    <t>V000000139</t>
+  </si>
+  <si>
+    <t>V000000140</t>
+  </si>
+  <si>
+    <t>V000000141</t>
+  </si>
+  <si>
+    <t>V000000142</t>
+  </si>
+  <si>
+    <t>V000000143</t>
+  </si>
+  <si>
+    <t>V000000144</t>
+  </si>
+  <si>
+    <t>V000000145</t>
+  </si>
+  <si>
+    <t>V000000146</t>
+  </si>
+  <si>
+    <t>V000000147</t>
+  </si>
+  <si>
+    <t>V000000148</t>
+  </si>
+  <si>
+    <t>V000000149</t>
+  </si>
+  <si>
+    <t>V000000150</t>
+  </si>
+  <si>
+    <t>V000000151</t>
+  </si>
+  <si>
+    <t>V000000153</t>
+  </si>
+  <si>
+    <t>V000000155</t>
+  </si>
+  <si>
+    <t>V000000156</t>
+  </si>
+  <si>
+    <t>V000000157</t>
+  </si>
+  <si>
+    <t>V000000158</t>
+  </si>
+  <si>
+    <t>V000000159</t>
+  </si>
+  <si>
+    <t>V000000160</t>
+  </si>
+  <si>
+    <t>V000000161</t>
+  </si>
+  <si>
+    <t>V000000162</t>
+  </si>
+  <si>
+    <t>V000000163</t>
+  </si>
+  <si>
+    <t>V000000164</t>
+  </si>
+  <si>
+    <t>V000000165</t>
+  </si>
+  <si>
+    <t>V000000166</t>
+  </si>
+  <si>
+    <t>V000000167</t>
+  </si>
+  <si>
+    <t>V000000168</t>
+  </si>
+  <si>
+    <t>V000000169</t>
+  </si>
+  <si>
+    <t>V000000174</t>
+  </si>
+  <si>
+    <t>V000000175</t>
+  </si>
+  <si>
+    <t>V000000176</t>
+  </si>
+  <si>
+    <t>V000000177</t>
+  </si>
+  <si>
+    <t>V000000178</t>
+  </si>
+  <si>
+    <t>V000000179</t>
+  </si>
+  <si>
+    <t>V000000180</t>
+  </si>
+  <si>
+    <t>V000000181</t>
+  </si>
+  <si>
+    <t>V000000182</t>
+  </si>
+  <si>
+    <t>V000000183</t>
+  </si>
+  <si>
+    <t>V000000184</t>
+  </si>
+  <si>
+    <t>V000000185</t>
+  </si>
+  <si>
+    <t>V000000186</t>
+  </si>
+  <si>
+    <t>V000000188</t>
+  </si>
+  <si>
+    <t>V000000189</t>
+  </si>
+  <si>
+    <t>V000000200</t>
+  </si>
+  <si>
+    <t>V000000201</t>
+  </si>
+  <si>
+    <t>V000000202</t>
+  </si>
+  <si>
+    <t>V000000204</t>
+  </si>
+  <si>
+    <t>V000000206</t>
+  </si>
+  <si>
+    <t>V000000207</t>
+  </si>
+  <si>
+    <t>V000000211</t>
+  </si>
+  <si>
+    <t>V000000212</t>
+  </si>
+  <si>
+    <t>V000000213</t>
+  </si>
+  <si>
+    <t>V000000214</t>
+  </si>
+  <si>
+    <t>V000000217</t>
+  </si>
+  <si>
+    <t>V000000218</t>
+  </si>
+  <si>
+    <t>V000000219</t>
+  </si>
+  <si>
+    <t>V000000220</t>
+  </si>
+  <si>
+    <t>V000000221</t>
+  </si>
+  <si>
+    <t>V000000222</t>
+  </si>
+  <si>
+    <t>V000000223</t>
+  </si>
+  <si>
+    <t>V000000224</t>
+  </si>
+  <si>
+    <t>V000000225</t>
+  </si>
+  <si>
+    <t>V000000226</t>
+  </si>
+  <si>
+    <t>V000000227</t>
+  </si>
+  <si>
+    <t>V000000228</t>
+  </si>
+  <si>
+    <t>V000000229</t>
+  </si>
+  <si>
+    <t>V000000230</t>
+  </si>
+  <si>
+    <t>V000000231</t>
+  </si>
+  <si>
+    <t>V000000233</t>
+  </si>
+  <si>
+    <t>V000000234</t>
+  </si>
+  <si>
+    <t>V000000235</t>
+  </si>
+  <si>
+    <t>V000000236</t>
+  </si>
+  <si>
+    <t>V000000237</t>
+  </si>
+  <si>
+    <t>V000000238</t>
+  </si>
+  <si>
+    <t>V000000240</t>
+  </si>
+  <si>
+    <t>V000000241</t>
+  </si>
+  <si>
+    <t>V000000242</t>
+  </si>
+  <si>
+    <t>V000000243</t>
+  </si>
+  <si>
+    <t>V000000244</t>
+  </si>
+  <si>
+    <t>V000000245</t>
+  </si>
+  <si>
+    <t>V000000246</t>
+  </si>
+  <si>
+    <t>V000000247</t>
+  </si>
+  <si>
+    <t>V000000249</t>
+  </si>
+  <si>
+    <t>V000000300</t>
+  </si>
+  <si>
+    <t>V000000301</t>
+  </si>
+  <si>
+    <t>V000000302</t>
+  </si>
+  <si>
+    <t>V000000304</t>
+  </si>
+  <si>
+    <t>V000000305</t>
+  </si>
+  <si>
+    <t>V000000306</t>
+  </si>
+  <si>
+    <t>V000000307</t>
+  </si>
+  <si>
+    <t>V000000308</t>
+  </si>
+  <si>
+    <t>V000000309</t>
+  </si>
+  <si>
+    <t>V000000311</t>
+  </si>
+  <si>
+    <t>V000000313</t>
+  </si>
+  <si>
+    <t>V000000315</t>
+  </si>
+  <si>
+    <t>V000000316</t>
+  </si>
+  <si>
+    <t>V000007030</t>
+  </si>
+  <si>
+    <t>V000000317</t>
+  </si>
+  <si>
+    <t>V000000318</t>
+  </si>
+  <si>
+    <t>V000000319</t>
+  </si>
+  <si>
+    <t>V000000320</t>
+  </si>
+  <si>
+    <t>V000000321</t>
+  </si>
+  <si>
+    <t>V000000322</t>
+  </si>
+  <si>
+    <t>V000000323</t>
+  </si>
+  <si>
+    <t>V000000325</t>
+  </si>
+  <si>
+    <t>V000000326</t>
+  </si>
+  <si>
+    <t>V000000327</t>
+  </si>
+  <si>
+    <t>V000000328</t>
+  </si>
+  <si>
+    <t>V000000330</t>
+  </si>
+  <si>
+    <t>V000000331</t>
+  </si>
+  <si>
+    <t>V000000332</t>
+  </si>
+  <si>
+    <t>V000000333</t>
+  </si>
+  <si>
+    <t>V000000340</t>
+  </si>
+  <si>
+    <t>V000000341</t>
+  </si>
+  <si>
+    <t>V000000342</t>
+  </si>
+  <si>
+    <t>V000000343</t>
+  </si>
+  <si>
+    <t>V000000345</t>
+  </si>
+  <si>
+    <t>V000000346</t>
+  </si>
+  <si>
+    <t>V000000347</t>
+  </si>
+  <si>
+    <t>V000000348</t>
+  </si>
+  <si>
+    <t>V000007040</t>
+  </si>
+  <si>
+    <t>V000000349</t>
+  </si>
+  <si>
+    <t>V000000351</t>
+  </si>
+  <si>
+    <t>V000000353</t>
+  </si>
+  <si>
+    <t>V000000355</t>
+  </si>
+  <si>
+    <t>V000000356</t>
+  </si>
+  <si>
+    <t>V000000357</t>
+  </si>
+  <si>
+    <t>V000000358</t>
+  </si>
+  <si>
+    <t>V000000359</t>
+  </si>
+  <si>
+    <t>V000000360</t>
+  </si>
+  <si>
+    <t>V000000364</t>
+  </si>
+  <si>
+    <t>V000000365</t>
+  </si>
+  <si>
+    <t>V000000366</t>
+  </si>
+  <si>
+    <t>V000000367</t>
+  </si>
+  <si>
+    <t>V000000400</t>
+  </si>
+  <si>
+    <t>V000000403</t>
+  </si>
+  <si>
+    <t>V000000404</t>
+  </si>
+  <si>
+    <t>V000000405</t>
+  </si>
+  <si>
+    <t>V000000406</t>
+  </si>
+  <si>
+    <t>V000000407</t>
+  </si>
+  <si>
+    <t>V000000408</t>
+  </si>
+  <si>
+    <t>V000000409</t>
+  </si>
+  <si>
+    <t>V000000410</t>
+  </si>
+  <si>
+    <t>V000000411</t>
+  </si>
+  <si>
+    <t>V000000412</t>
+  </si>
+  <si>
+    <t>V000000413</t>
+  </si>
+  <si>
+    <t>V000000414</t>
+  </si>
+  <si>
+    <t>V000000416</t>
+  </si>
+  <si>
+    <t>V000000419</t>
+  </si>
+  <si>
+    <t>V000000420</t>
+  </si>
+  <si>
+    <t>V000000421</t>
+  </si>
+  <si>
+    <t>V000000422</t>
+  </si>
+  <si>
+    <t>V000000423</t>
+  </si>
+  <si>
+    <t>V000000424</t>
+  </si>
+  <si>
+    <t>V000000425</t>
+  </si>
+  <si>
+    <t>V000000426</t>
+  </si>
+  <si>
+    <t>V000007050</t>
+  </si>
+  <si>
+    <t>V000000427</t>
+  </si>
+  <si>
+    <t>V000000428</t>
+  </si>
+  <si>
+    <t>V000000429</t>
+  </si>
+  <si>
+    <t>V000000430</t>
+  </si>
+  <si>
+    <t>V000000431</t>
+  </si>
+  <si>
+    <t>V000000432</t>
+  </si>
+  <si>
+    <t>V000000433</t>
+  </si>
+  <si>
+    <t>V000000434</t>
+  </si>
+  <si>
+    <t>V000000435</t>
+  </si>
+  <si>
+    <t>V000000436</t>
+  </si>
+  <si>
+    <t>V000000437</t>
+  </si>
+  <si>
+    <t>V000000442</t>
+  </si>
+  <si>
+    <t>V000000443</t>
+  </si>
+  <si>
+    <t>V000000444</t>
+  </si>
+  <si>
+    <t>V000000445</t>
+  </si>
+  <si>
+    <t>V000000446</t>
+  </si>
+  <si>
+    <t>V000000447</t>
+  </si>
+  <si>
+    <t>V000000448</t>
+  </si>
+  <si>
+    <t>V000000449</t>
+  </si>
+  <si>
+    <t>V000000500</t>
+  </si>
+  <si>
+    <t>V000000501</t>
+  </si>
+  <si>
+    <t>V000000502</t>
+  </si>
+  <si>
+    <t>V000000503</t>
+  </si>
+  <si>
+    <t>V000000504</t>
+  </si>
+  <si>
+    <t>V000000505</t>
+  </si>
+  <si>
+    <t>V000000506</t>
+  </si>
+  <si>
+    <t>V000000507</t>
+  </si>
+  <si>
+    <t>V000000508</t>
+  </si>
+  <si>
+    <t>V000000509</t>
+  </si>
+  <si>
+    <t>V000000510</t>
+  </si>
+  <si>
+    <t>V000000511</t>
+  </si>
+  <si>
+    <t>V000000512</t>
+  </si>
+  <si>
+    <t>V000000513</t>
+  </si>
+  <si>
+    <t>V000000514</t>
+  </si>
+  <si>
+    <t>V000000515</t>
+  </si>
+  <si>
+    <t>V000000516</t>
+  </si>
+  <si>
+    <t>V000000517</t>
+  </si>
+  <si>
+    <t>V000000518</t>
+  </si>
+  <si>
+    <t>V000000519</t>
+  </si>
+  <si>
+    <t>V000000520</t>
+  </si>
+  <si>
+    <t>V000000521</t>
+  </si>
+  <si>
+    <t>V000000522</t>
+  </si>
+  <si>
+    <t>V000000523</t>
+  </si>
+  <si>
+    <t>V000000524</t>
+  </si>
+  <si>
+    <t>V000000525</t>
+  </si>
+  <si>
+    <t>V000000526</t>
+  </si>
+  <si>
+    <t>V000000527</t>
+  </si>
+  <si>
+    <t>V000000528</t>
+  </si>
+  <si>
+    <t>V000000529</t>
+  </si>
+  <si>
+    <t>V000000530</t>
+  </si>
+  <si>
+    <t>V000000531</t>
+  </si>
+  <si>
+    <t>V000000534</t>
+  </si>
+  <si>
+    <t>V000000535</t>
+  </si>
+  <si>
+    <t>V000000537</t>
+  </si>
+  <si>
+    <t>V000000538</t>
+  </si>
+  <si>
+    <t>V000000540</t>
+  </si>
+  <si>
+    <t>V000000541</t>
+  </si>
+  <si>
+    <t>V000000542</t>
+  </si>
+  <si>
+    <t>V000000543</t>
+  </si>
+  <si>
+    <t>V000000544</t>
+  </si>
+  <si>
+    <t>V000000545</t>
+  </si>
+  <si>
+    <t>V000000547</t>
+  </si>
+  <si>
+    <t>V000000549</t>
+  </si>
+  <si>
+    <t>V000000550</t>
+  </si>
+  <si>
+    <t>V000000551</t>
+  </si>
+  <si>
+    <t>V000000552</t>
+  </si>
+  <si>
+    <t>V000000555</t>
+  </si>
+  <si>
+    <t>V000000558</t>
+  </si>
+  <si>
+    <t>V000000561</t>
+  </si>
+  <si>
+    <t>V000000562</t>
+  </si>
+  <si>
+    <t>V000000564</t>
+  </si>
+  <si>
+    <t>V000000565</t>
+  </si>
+  <si>
+    <t>V000000566</t>
+  </si>
+  <si>
+    <t>V000000600</t>
+  </si>
+  <si>
+    <t>V000000601</t>
+  </si>
+  <si>
+    <t>V000000602</t>
+  </si>
+  <si>
+    <t>V000000603</t>
+  </si>
+  <si>
+    <t>V000000604</t>
+  </si>
+  <si>
+    <t>V000000605</t>
+  </si>
+  <si>
+    <t>V000000606</t>
+  </si>
+  <si>
+    <t>V000000607</t>
+  </si>
+  <si>
+    <t>V000000608</t>
+  </si>
+  <si>
+    <t>V000000609</t>
+  </si>
+  <si>
+    <t>V000000610</t>
+  </si>
+  <si>
+    <t>V000000611</t>
+  </si>
+  <si>
+    <t>V000000612</t>
+  </si>
+  <si>
+    <t>V000000618</t>
+  </si>
+  <si>
+    <t>V000000619</t>
+  </si>
+  <si>
+    <t>V000000620</t>
+  </si>
+  <si>
+    <t>V000000621</t>
+  </si>
+  <si>
+    <t>V000000622</t>
+  </si>
+  <si>
+    <t>V000000623</t>
+  </si>
+  <si>
+    <t>V000000624</t>
+  </si>
+  <si>
+    <t>V000000625</t>
+  </si>
+  <si>
+    <t>V000000627</t>
+  </si>
+  <si>
+    <t>V000000629</t>
+  </si>
+  <si>
+    <t>V000000631</t>
+  </si>
+  <si>
+    <t>V000000632</t>
+  </si>
+  <si>
+    <t>V000000633</t>
+  </si>
+  <si>
+    <t>V000000634</t>
+  </si>
+  <si>
+    <t>V000000635</t>
+  </si>
+  <si>
+    <t>V000007060</t>
+  </si>
+  <si>
+    <t>V000007061</t>
+  </si>
+  <si>
+    <t>V000000636</t>
+  </si>
+  <si>
+    <t>V000000637</t>
+  </si>
+  <si>
+    <t>V000000638</t>
+  </si>
+  <si>
+    <t>V000000639</t>
+  </si>
+  <si>
+    <t>V000000640</t>
+  </si>
+  <si>
+    <t>V000000641</t>
+  </si>
+  <si>
+    <t>V000000642</t>
+  </si>
+  <si>
+    <t>V000000644</t>
+  </si>
+  <si>
+    <t>V000000645</t>
+  </si>
+  <si>
+    <t>V000000659</t>
+  </si>
+  <si>
+    <t>V000000660</t>
+  </si>
+  <si>
+    <t>V000000661</t>
+  </si>
+  <si>
+    <t>V000000662</t>
+  </si>
+  <si>
+    <t>V000000663</t>
+  </si>
+  <si>
+    <t>V000000664</t>
+  </si>
+  <si>
+    <t>V000007062</t>
+  </si>
+  <si>
+    <t>V000000700</t>
+  </si>
+  <si>
+    <t>V000000701</t>
+  </si>
+  <si>
+    <t>V000000702</t>
+  </si>
+  <si>
+    <t>V000000703</t>
+  </si>
+  <si>
+    <t>V000000704</t>
+  </si>
+  <si>
+    <t>V000000705</t>
+  </si>
+  <si>
+    <t>V000000706</t>
+  </si>
+  <si>
+    <t>V000000707</t>
+  </si>
+  <si>
+    <t>V000000708</t>
+  </si>
+  <si>
+    <t>V000000709</t>
+  </si>
+  <si>
+    <t>V000000710</t>
+  </si>
+  <si>
+    <t>V000000711</t>
+  </si>
+  <si>
+    <t>V000000712</t>
+  </si>
+  <si>
+    <t>V000000713</t>
+  </si>
+  <si>
+    <t>V000000714</t>
+  </si>
+  <si>
+    <t>V000007070</t>
+  </si>
+  <si>
+    <t>V000000718</t>
+  </si>
+  <si>
+    <t>V000000719</t>
+  </si>
+  <si>
+    <t>V000000720</t>
+  </si>
+  <si>
+    <t>V000000721</t>
+  </si>
+  <si>
+    <t>V000000722</t>
+  </si>
+  <si>
+    <t>V000000723</t>
+  </si>
+  <si>
+    <t>V000000724</t>
+  </si>
+  <si>
+    <t>V000007071</t>
+  </si>
+  <si>
+    <t>V000007072</t>
+  </si>
+  <si>
+    <t>V000000725</t>
+  </si>
+  <si>
+    <t>V000000726</t>
+  </si>
+  <si>
+    <t>V000000727</t>
+  </si>
+  <si>
+    <t>V000000728</t>
+  </si>
+  <si>
+    <t>V000000729</t>
+  </si>
+  <si>
+    <t>V000000731</t>
+  </si>
+  <si>
+    <t>V000000732</t>
+  </si>
+  <si>
+    <t>V000007073</t>
+  </si>
+  <si>
+    <t>V000000733</t>
+  </si>
+  <si>
+    <t>V000000735</t>
+  </si>
+  <si>
+    <t>V000000737</t>
+  </si>
+  <si>
+    <t>V000000739</t>
+  </si>
+  <si>
+    <t>V000000742</t>
+  </si>
+  <si>
+    <t>V000000743</t>
+  </si>
+  <si>
+    <t>V000000800</t>
+  </si>
+  <si>
+    <t>V000000802</t>
+  </si>
+  <si>
+    <t>V000000804</t>
+  </si>
+  <si>
+    <t>V000000805</t>
+  </si>
+  <si>
+    <t>V000000806</t>
+  </si>
+  <si>
+    <t>V000000807</t>
+  </si>
+  <si>
+    <t>V000000808</t>
+  </si>
+  <si>
+    <t>V000000809</t>
+  </si>
+  <si>
+    <t>V000000810</t>
+  </si>
+  <si>
+    <t>V000000811</t>
+  </si>
+  <si>
+    <t>V000000812</t>
+  </si>
+  <si>
+    <t>V000000813</t>
+  </si>
+  <si>
+    <t>V000000814</t>
+  </si>
+  <si>
+    <t>V000000815</t>
+  </si>
+  <si>
+    <t>V000000816</t>
+  </si>
+  <si>
+    <t>V000000817</t>
+  </si>
+  <si>
+    <t>V000000818</t>
+  </si>
+  <si>
+    <t>V000000819</t>
+  </si>
+  <si>
+    <t>V000000820</t>
+  </si>
+  <si>
+    <t>V000000821</t>
+  </si>
+  <si>
+    <t>V000007080</t>
+  </si>
+  <si>
+    <t>V000007081</t>
+  </si>
+  <si>
+    <t>V000000822</t>
+  </si>
+  <si>
+    <t>V000000823</t>
+  </si>
+  <si>
+    <t>V000000825</t>
+  </si>
+  <si>
+    <t>V000000826</t>
+  </si>
+  <si>
+    <t>V000000827</t>
+  </si>
+  <si>
+    <t>V000000828</t>
+  </si>
+  <si>
+    <t>V000000829</t>
+  </si>
+  <si>
+    <t>V000000830</t>
+  </si>
+  <si>
+    <t>V000000831</t>
+  </si>
+  <si>
+    <t>V000000832</t>
+  </si>
+  <si>
+    <t>V000000833</t>
+  </si>
+  <si>
+    <t>V000000834</t>
+  </si>
+  <si>
+    <t>V000000835</t>
+  </si>
+  <si>
+    <t>V000000836</t>
+  </si>
+  <si>
+    <t>V000000837</t>
+  </si>
+  <si>
+    <t>V000000838</t>
+  </si>
+  <si>
+    <t>V000000839</t>
+  </si>
+  <si>
+    <t>V000000840</t>
+  </si>
+  <si>
+    <t>V000000841</t>
+  </si>
+  <si>
+    <t>V000000842</t>
+  </si>
+  <si>
+    <t>V000000843</t>
+  </si>
+  <si>
+    <t>V000000844</t>
+  </si>
+  <si>
+    <t>V000000845</t>
+  </si>
+  <si>
+    <t>V000000846</t>
+  </si>
+  <si>
+    <t>V000000847</t>
+  </si>
+  <si>
+    <t>V000000901</t>
+  </si>
+  <si>
+    <t>V000000903</t>
+  </si>
+  <si>
+    <t>V000000904</t>
+  </si>
+  <si>
+    <t>V000000905</t>
+  </si>
+  <si>
+    <t>V000000906</t>
+  </si>
+  <si>
+    <t>V000000907</t>
+  </si>
+  <si>
+    <t>V000000908</t>
+  </si>
+  <si>
+    <t>V000000910</t>
+  </si>
+  <si>
+    <t>V000000912</t>
+  </si>
+  <si>
+    <t>V000000913</t>
+  </si>
+  <si>
+    <t>V000000914</t>
+  </si>
+  <si>
+    <t>V000000915</t>
+  </si>
+  <si>
+    <t>V000000916</t>
+  </si>
+  <si>
+    <t>V000000919</t>
+  </si>
+  <si>
+    <t>V000000921</t>
+  </si>
+  <si>
+    <t>V000000922</t>
+  </si>
+  <si>
+    <t>V000000923</t>
+  </si>
+  <si>
+    <t>V000000924</t>
+  </si>
+  <si>
+    <t>V000000925</t>
+  </si>
+  <si>
+    <t>V000000926</t>
+  </si>
+  <si>
+    <t>V000000927</t>
+  </si>
+  <si>
+    <t>V000000928</t>
+  </si>
+  <si>
+    <t>V000000929</t>
+  </si>
+  <si>
+    <t>V000000930</t>
+  </si>
+  <si>
+    <t>V000000931</t>
+  </si>
+  <si>
+    <t>V000000933</t>
+  </si>
+  <si>
+    <t>V000000936</t>
+  </si>
+  <si>
+    <t>V000000937</t>
+  </si>
+  <si>
+    <t>V000007090</t>
+  </si>
+  <si>
+    <t>V000000938</t>
+  </si>
+  <si>
+    <t>V000000939</t>
+  </si>
+  <si>
+    <t>V000000940</t>
+  </si>
+  <si>
+    <t>V000000941</t>
+  </si>
+  <si>
+    <t>V000000942</t>
+  </si>
+  <si>
+    <t>V000000943</t>
+  </si>
+  <si>
+    <t>V000000944</t>
+  </si>
+  <si>
+    <t>V000000945</t>
+  </si>
+  <si>
+    <t>V000000946</t>
+  </si>
+  <si>
+    <t>V000000947</t>
+  </si>
+  <si>
+    <t>V000000948</t>
+  </si>
+  <si>
+    <t>V000000949</t>
+  </si>
+  <si>
+    <t>V000000950</t>
+  </si>
+  <si>
+    <t>V000000951</t>
   </si>
 </sst>
 </file>
@@ -339,9 +1713,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="D506" sqref="D506:D548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1630,6 +3005,4934 @@
       </c>
       <c r="D90">
         <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>94</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>94</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>94</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>94</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>94</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>130</v>
+      </c>
+      <c r="B135" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>130</v>
+      </c>
+      <c r="B137" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>130</v>
+      </c>
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B144" t="s">
+        <v>155</v>
+      </c>
+      <c r="D144">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>130</v>
+      </c>
+      <c r="B145" t="s">
+        <v>156</v>
+      </c>
+      <c r="D145">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>130</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>130</v>
+      </c>
+      <c r="B148" t="s">
+        <v>159</v>
+      </c>
+      <c r="D148">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>130</v>
+      </c>
+      <c r="B149" t="s">
+        <v>160</v>
+      </c>
+      <c r="D149">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" t="s">
+        <v>161</v>
+      </c>
+      <c r="D150">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" t="s">
+        <v>243</v>
+      </c>
+      <c r="D152">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>130</v>
+      </c>
+      <c r="B154" t="s">
+        <v>164</v>
+      </c>
+      <c r="D154">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>130</v>
+      </c>
+      <c r="B155" t="s">
+        <v>165</v>
+      </c>
+      <c r="D155">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>130</v>
+      </c>
+      <c r="B156" t="s">
+        <v>166</v>
+      </c>
+      <c r="D156">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>130</v>
+      </c>
+      <c r="B157" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>130</v>
+      </c>
+      <c r="B159" t="s">
+        <v>169</v>
+      </c>
+      <c r="D159">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>130</v>
+      </c>
+      <c r="B160" t="s">
+        <v>170</v>
+      </c>
+      <c r="D160">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>130</v>
+      </c>
+      <c r="B161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>130</v>
+      </c>
+      <c r="B162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D162">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>130</v>
+      </c>
+      <c r="B163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D163">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>130</v>
+      </c>
+      <c r="B164" t="s">
+        <v>174</v>
+      </c>
+      <c r="D164">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>130</v>
+      </c>
+      <c r="B165" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>130</v>
+      </c>
+      <c r="B166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>130</v>
+      </c>
+      <c r="B167" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>130</v>
+      </c>
+      <c r="B168" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>130</v>
+      </c>
+      <c r="B169" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>130</v>
+      </c>
+      <c r="B170" t="s">
+        <v>180</v>
+      </c>
+      <c r="D170">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>130</v>
+      </c>
+      <c r="B171" t="s">
+        <v>181</v>
+      </c>
+      <c r="D171">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>130</v>
+      </c>
+      <c r="B172" t="s">
+        <v>182</v>
+      </c>
+      <c r="D172">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>130</v>
+      </c>
+      <c r="B173" t="s">
+        <v>183</v>
+      </c>
+      <c r="D173">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>130</v>
+      </c>
+      <c r="B174" t="s">
+        <v>184</v>
+      </c>
+      <c r="D174">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>130</v>
+      </c>
+      <c r="B175" t="s">
+        <v>185</v>
+      </c>
+      <c r="D175">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>130</v>
+      </c>
+      <c r="B176" t="s">
+        <v>186</v>
+      </c>
+      <c r="D176">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>130</v>
+      </c>
+      <c r="B177" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>130</v>
+      </c>
+      <c r="B178" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>130</v>
+      </c>
+      <c r="B179" t="s">
+        <v>189</v>
+      </c>
+      <c r="D179">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181" t="s">
+        <v>190</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>131</v>
+      </c>
+      <c r="B182" t="s">
+        <v>191</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183" t="s">
+        <v>192</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>131</v>
+      </c>
+      <c r="B184" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>131</v>
+      </c>
+      <c r="B185" t="s">
+        <v>194</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>131</v>
+      </c>
+      <c r="B186" t="s">
+        <v>195</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>131</v>
+      </c>
+      <c r="B187" t="s">
+        <v>196</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>131</v>
+      </c>
+      <c r="B188" t="s">
+        <v>197</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>131</v>
+      </c>
+      <c r="B189" t="s">
+        <v>198</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>131</v>
+      </c>
+      <c r="B190" t="s">
+        <v>199</v>
+      </c>
+      <c r="D190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>131</v>
+      </c>
+      <c r="B191" t="s">
+        <v>200</v>
+      </c>
+      <c r="D191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>131</v>
+      </c>
+      <c r="B192" t="s">
+        <v>201</v>
+      </c>
+      <c r="D192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>131</v>
+      </c>
+      <c r="B193" t="s">
+        <v>202</v>
+      </c>
+      <c r="D193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>131</v>
+      </c>
+      <c r="B194" t="s">
+        <v>203</v>
+      </c>
+      <c r="D194">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>131</v>
+      </c>
+      <c r="B195" t="s">
+        <v>204</v>
+      </c>
+      <c r="D195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>131</v>
+      </c>
+      <c r="B196" t="s">
+        <v>205</v>
+      </c>
+      <c r="D196">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>131</v>
+      </c>
+      <c r="B197" t="s">
+        <v>206</v>
+      </c>
+      <c r="D197">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>131</v>
+      </c>
+      <c r="B198" t="s">
+        <v>207</v>
+      </c>
+      <c r="D198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>131</v>
+      </c>
+      <c r="B199" t="s">
+        <v>208</v>
+      </c>
+      <c r="D199">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>131</v>
+      </c>
+      <c r="B200" t="s">
+        <v>209</v>
+      </c>
+      <c r="D200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>131</v>
+      </c>
+      <c r="B201" t="s">
+        <v>210</v>
+      </c>
+      <c r="D201">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>131</v>
+      </c>
+      <c r="B202" t="s">
+        <v>211</v>
+      </c>
+      <c r="D202">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>131</v>
+      </c>
+      <c r="B203" t="s">
+        <v>212</v>
+      </c>
+      <c r="D203">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>131</v>
+      </c>
+      <c r="B204" t="s">
+        <v>213</v>
+      </c>
+      <c r="D204">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>131</v>
+      </c>
+      <c r="B205" t="s">
+        <v>214</v>
+      </c>
+      <c r="D205">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>131</v>
+      </c>
+      <c r="B206" t="s">
+        <v>215</v>
+      </c>
+      <c r="D206">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>131</v>
+      </c>
+      <c r="B207" t="s">
+        <v>216</v>
+      </c>
+      <c r="D207">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>131</v>
+      </c>
+      <c r="B208" t="s">
+        <v>217</v>
+      </c>
+      <c r="D208">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>131</v>
+      </c>
+      <c r="B209" t="s">
+        <v>218</v>
+      </c>
+      <c r="D209">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>131</v>
+      </c>
+      <c r="B210" t="s">
+        <v>219</v>
+      </c>
+      <c r="D210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>131</v>
+      </c>
+      <c r="B211" t="s">
+        <v>220</v>
+      </c>
+      <c r="D211">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>131</v>
+      </c>
+      <c r="B212" t="s">
+        <v>221</v>
+      </c>
+      <c r="D212">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>131</v>
+      </c>
+      <c r="B213" t="s">
+        <v>222</v>
+      </c>
+      <c r="D213">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>131</v>
+      </c>
+      <c r="B214" t="s">
+        <v>223</v>
+      </c>
+      <c r="D214">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>131</v>
+      </c>
+      <c r="B215" t="s">
+        <v>224</v>
+      </c>
+      <c r="D215">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>131</v>
+      </c>
+      <c r="B216" t="s">
+        <v>225</v>
+      </c>
+      <c r="D216">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>131</v>
+      </c>
+      <c r="B217" t="s">
+        <v>226</v>
+      </c>
+      <c r="D217">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>131</v>
+      </c>
+      <c r="B218" t="s">
+        <v>227</v>
+      </c>
+      <c r="D218">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>131</v>
+      </c>
+      <c r="B219" t="s">
+        <v>228</v>
+      </c>
+      <c r="D219">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>131</v>
+      </c>
+      <c r="B220" t="s">
+        <v>229</v>
+      </c>
+      <c r="D220">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>132</v>
+      </c>
+      <c r="B222" t="s">
+        <v>230</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>132</v>
+      </c>
+      <c r="B223" t="s">
+        <v>231</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>132</v>
+      </c>
+      <c r="B224" t="s">
+        <v>232</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>132</v>
+      </c>
+      <c r="B225" t="s">
+        <v>233</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>132</v>
+      </c>
+      <c r="B226" t="s">
+        <v>234</v>
+      </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>132</v>
+      </c>
+      <c r="B227" t="s">
+        <v>235</v>
+      </c>
+      <c r="D227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>132</v>
+      </c>
+      <c r="B228" t="s">
+        <v>236</v>
+      </c>
+      <c r="D228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>132</v>
+      </c>
+      <c r="B229" t="s">
+        <v>237</v>
+      </c>
+      <c r="D229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>132</v>
+      </c>
+      <c r="B230" t="s">
+        <v>238</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>132</v>
+      </c>
+      <c r="B231" t="s">
+        <v>239</v>
+      </c>
+      <c r="D231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>132</v>
+      </c>
+      <c r="B232" t="s">
+        <v>240</v>
+      </c>
+      <c r="D232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>132</v>
+      </c>
+      <c r="B233" t="s">
+        <v>241</v>
+      </c>
+      <c r="D233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>132</v>
+      </c>
+      <c r="B234" t="s">
+        <v>242</v>
+      </c>
+      <c r="D234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>132</v>
+      </c>
+      <c r="B235" t="s">
+        <v>244</v>
+      </c>
+      <c r="D235">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>132</v>
+      </c>
+      <c r="B236" t="s">
+        <v>245</v>
+      </c>
+      <c r="D236">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" t="s">
+        <v>246</v>
+      </c>
+      <c r="D237">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238" t="s">
+        <v>247</v>
+      </c>
+      <c r="D238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>132</v>
+      </c>
+      <c r="B239" t="s">
+        <v>248</v>
+      </c>
+      <c r="D239">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>132</v>
+      </c>
+      <c r="B240" t="s">
+        <v>249</v>
+      </c>
+      <c r="D240">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>132</v>
+      </c>
+      <c r="B241" t="s">
+        <v>250</v>
+      </c>
+      <c r="D241">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>132</v>
+      </c>
+      <c r="B242" t="s">
+        <v>251</v>
+      </c>
+      <c r="D242">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>132</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D243">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>132</v>
+      </c>
+      <c r="B244" t="s">
+        <v>253</v>
+      </c>
+      <c r="D244">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>132</v>
+      </c>
+      <c r="B245" t="s">
+        <v>254</v>
+      </c>
+      <c r="D245">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>132</v>
+      </c>
+      <c r="B246" t="s">
+        <v>255</v>
+      </c>
+      <c r="D246">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>132</v>
+      </c>
+      <c r="B247" t="s">
+        <v>256</v>
+      </c>
+      <c r="D247">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>132</v>
+      </c>
+      <c r="B248" t="s">
+        <v>257</v>
+      </c>
+      <c r="D248">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>132</v>
+      </c>
+      <c r="B249" t="s">
+        <v>258</v>
+      </c>
+      <c r="D249">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>132</v>
+      </c>
+      <c r="B250" t="s">
+        <v>259</v>
+      </c>
+      <c r="D250">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>132</v>
+      </c>
+      <c r="B251" t="s">
+        <v>260</v>
+      </c>
+      <c r="D251">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>132</v>
+      </c>
+      <c r="B252" t="s">
+        <v>261</v>
+      </c>
+      <c r="D252">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>132</v>
+      </c>
+      <c r="B253" t="s">
+        <v>262</v>
+      </c>
+      <c r="D253">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>132</v>
+      </c>
+      <c r="B254" t="s">
+        <v>263</v>
+      </c>
+      <c r="D254">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>132</v>
+      </c>
+      <c r="B255" t="s">
+        <v>264</v>
+      </c>
+      <c r="D255">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>132</v>
+      </c>
+      <c r="B256" t="s">
+        <v>265</v>
+      </c>
+      <c r="D256">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>132</v>
+      </c>
+      <c r="B257" t="s">
+        <v>266</v>
+      </c>
+      <c r="D257">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>267</v>
+      </c>
+      <c r="D258">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>268</v>
+      </c>
+      <c r="D259">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>269</v>
+      </c>
+      <c r="D260">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>270</v>
+      </c>
+      <c r="D261">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>132</v>
+      </c>
+      <c r="B262" t="s">
+        <v>271</v>
+      </c>
+      <c r="D262">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>132</v>
+      </c>
+      <c r="B263" t="s">
+        <v>272</v>
+      </c>
+      <c r="D263">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>132</v>
+      </c>
+      <c r="B264" t="s">
+        <v>273</v>
+      </c>
+      <c r="D264">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>132</v>
+      </c>
+      <c r="B265" t="s">
+        <v>274</v>
+      </c>
+      <c r="D265">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>132</v>
+      </c>
+      <c r="B266" t="s">
+        <v>275</v>
+      </c>
+      <c r="D266">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>132</v>
+      </c>
+      <c r="B267" t="s">
+        <v>276</v>
+      </c>
+      <c r="D267">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>132</v>
+      </c>
+      <c r="B268" t="s">
+        <v>277</v>
+      </c>
+      <c r="D268">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>132</v>
+      </c>
+      <c r="B269" t="s">
+        <v>278</v>
+      </c>
+      <c r="D269">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>132</v>
+      </c>
+      <c r="B270" t="s">
+        <v>279</v>
+      </c>
+      <c r="D270">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>132</v>
+      </c>
+      <c r="B271" t="s">
+        <v>280</v>
+      </c>
+      <c r="D271">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>133</v>
+      </c>
+      <c r="B273" t="s">
+        <v>281</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>133</v>
+      </c>
+      <c r="B274" t="s">
+        <v>282</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>133</v>
+      </c>
+      <c r="B275" t="s">
+        <v>283</v>
+      </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>133</v>
+      </c>
+      <c r="B276" t="s">
+        <v>284</v>
+      </c>
+      <c r="D276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>133</v>
+      </c>
+      <c r="B277" t="s">
+        <v>285</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>133</v>
+      </c>
+      <c r="B278" t="s">
+        <v>286</v>
+      </c>
+      <c r="D278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>133</v>
+      </c>
+      <c r="B279" t="s">
+        <v>287</v>
+      </c>
+      <c r="D279">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>133</v>
+      </c>
+      <c r="B280" t="s">
+        <v>288</v>
+      </c>
+      <c r="D280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>133</v>
+      </c>
+      <c r="B281" t="s">
+        <v>289</v>
+      </c>
+      <c r="D281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>133</v>
+      </c>
+      <c r="B282" t="s">
+        <v>290</v>
+      </c>
+      <c r="D282">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>133</v>
+      </c>
+      <c r="B283" t="s">
+        <v>291</v>
+      </c>
+      <c r="D283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>133</v>
+      </c>
+      <c r="B284" t="s">
+        <v>292</v>
+      </c>
+      <c r="D284">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>133</v>
+      </c>
+      <c r="B285" t="s">
+        <v>293</v>
+      </c>
+      <c r="D285">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>133</v>
+      </c>
+      <c r="B286" t="s">
+        <v>294</v>
+      </c>
+      <c r="D286">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>133</v>
+      </c>
+      <c r="B287" t="s">
+        <v>295</v>
+      </c>
+      <c r="D287">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>133</v>
+      </c>
+      <c r="B288" t="s">
+        <v>296</v>
+      </c>
+      <c r="D288">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>133</v>
+      </c>
+      <c r="B289" t="s">
+        <v>297</v>
+      </c>
+      <c r="D289">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>133</v>
+      </c>
+      <c r="B290" t="s">
+        <v>298</v>
+      </c>
+      <c r="D290">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>133</v>
+      </c>
+      <c r="B291" t="s">
+        <v>299</v>
+      </c>
+      <c r="D291">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>133</v>
+      </c>
+      <c r="B292" t="s">
+        <v>300</v>
+      </c>
+      <c r="D292">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>133</v>
+      </c>
+      <c r="B293" t="s">
+        <v>301</v>
+      </c>
+      <c r="D293">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>133</v>
+      </c>
+      <c r="B294" t="s">
+        <v>302</v>
+      </c>
+      <c r="D294">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>133</v>
+      </c>
+      <c r="B295" t="s">
+        <v>303</v>
+      </c>
+      <c r="D295">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>133</v>
+      </c>
+      <c r="B296" t="s">
+        <v>304</v>
+      </c>
+      <c r="D296">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>133</v>
+      </c>
+      <c r="B297" t="s">
+        <v>305</v>
+      </c>
+      <c r="D297">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>133</v>
+      </c>
+      <c r="B298" t="s">
+        <v>306</v>
+      </c>
+      <c r="D298">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>133</v>
+      </c>
+      <c r="B299" t="s">
+        <v>307</v>
+      </c>
+      <c r="D299">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>133</v>
+      </c>
+      <c r="B300" t="s">
+        <v>308</v>
+      </c>
+      <c r="D300">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>133</v>
+      </c>
+      <c r="B301" t="s">
+        <v>309</v>
+      </c>
+      <c r="D301">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>133</v>
+      </c>
+      <c r="B302" t="s">
+        <v>310</v>
+      </c>
+      <c r="D302">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>133</v>
+      </c>
+      <c r="B303" t="s">
+        <v>311</v>
+      </c>
+      <c r="D303">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>133</v>
+      </c>
+      <c r="B304" t="s">
+        <v>312</v>
+      </c>
+      <c r="D304">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>133</v>
+      </c>
+      <c r="B305" t="s">
+        <v>313</v>
+      </c>
+      <c r="D305">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>133</v>
+      </c>
+      <c r="B306" t="s">
+        <v>314</v>
+      </c>
+      <c r="D306">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>133</v>
+      </c>
+      <c r="B307" t="s">
+        <v>315</v>
+      </c>
+      <c r="D307">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>133</v>
+      </c>
+      <c r="B308" t="s">
+        <v>316</v>
+      </c>
+      <c r="D308">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>133</v>
+      </c>
+      <c r="B309" t="s">
+        <v>317</v>
+      </c>
+      <c r="D309">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>133</v>
+      </c>
+      <c r="B310" t="s">
+        <v>318</v>
+      </c>
+      <c r="D310">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>133</v>
+      </c>
+      <c r="B311" t="s">
+        <v>319</v>
+      </c>
+      <c r="D311">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>133</v>
+      </c>
+      <c r="B312" t="s">
+        <v>320</v>
+      </c>
+      <c r="D312">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>133</v>
+      </c>
+      <c r="B313" t="s">
+        <v>321</v>
+      </c>
+      <c r="D313">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>133</v>
+      </c>
+      <c r="B314" t="s">
+        <v>322</v>
+      </c>
+      <c r="D314">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>134</v>
+      </c>
+      <c r="B316" t="s">
+        <v>323</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>134</v>
+      </c>
+      <c r="B317" t="s">
+        <v>324</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>134</v>
+      </c>
+      <c r="B318" t="s">
+        <v>325</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>134</v>
+      </c>
+      <c r="B319" t="s">
+        <v>326</v>
+      </c>
+      <c r="D319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>134</v>
+      </c>
+      <c r="B320" t="s">
+        <v>327</v>
+      </c>
+      <c r="D320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>134</v>
+      </c>
+      <c r="B321" t="s">
+        <v>328</v>
+      </c>
+      <c r="D321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>134</v>
+      </c>
+      <c r="B322" t="s">
+        <v>329</v>
+      </c>
+      <c r="D322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>134</v>
+      </c>
+      <c r="B323" t="s">
+        <v>330</v>
+      </c>
+      <c r="D323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>134</v>
+      </c>
+      <c r="B324" t="s">
+        <v>331</v>
+      </c>
+      <c r="D324">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>134</v>
+      </c>
+      <c r="B325" t="s">
+        <v>332</v>
+      </c>
+      <c r="D325">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>134</v>
+      </c>
+      <c r="B326" t="s">
+        <v>333</v>
+      </c>
+      <c r="D326">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>134</v>
+      </c>
+      <c r="B327" t="s">
+        <v>334</v>
+      </c>
+      <c r="D327">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>134</v>
+      </c>
+      <c r="B328" t="s">
+        <v>335</v>
+      </c>
+      <c r="D328">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>134</v>
+      </c>
+      <c r="B329" t="s">
+        <v>336</v>
+      </c>
+      <c r="D329">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>134</v>
+      </c>
+      <c r="B330" t="s">
+        <v>337</v>
+      </c>
+      <c r="D330">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>134</v>
+      </c>
+      <c r="B331" t="s">
+        <v>338</v>
+      </c>
+      <c r="D331">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>134</v>
+      </c>
+      <c r="B332" t="s">
+        <v>339</v>
+      </c>
+      <c r="D332">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>134</v>
+      </c>
+      <c r="B333" t="s">
+        <v>340</v>
+      </c>
+      <c r="D333">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>134</v>
+      </c>
+      <c r="B334" t="s">
+        <v>341</v>
+      </c>
+      <c r="D334">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>134</v>
+      </c>
+      <c r="B335" t="s">
+        <v>342</v>
+      </c>
+      <c r="D335">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>134</v>
+      </c>
+      <c r="B336" t="s">
+        <v>343</v>
+      </c>
+      <c r="D336">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>134</v>
+      </c>
+      <c r="B337" t="s">
+        <v>344</v>
+      </c>
+      <c r="D337">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>134</v>
+      </c>
+      <c r="B338" t="s">
+        <v>345</v>
+      </c>
+      <c r="D338">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>134</v>
+      </c>
+      <c r="B339" t="s">
+        <v>346</v>
+      </c>
+      <c r="D339">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>134</v>
+      </c>
+      <c r="B340" t="s">
+        <v>347</v>
+      </c>
+      <c r="D340">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>134</v>
+      </c>
+      <c r="B341" t="s">
+        <v>348</v>
+      </c>
+      <c r="D341">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>134</v>
+      </c>
+      <c r="B342" t="s">
+        <v>349</v>
+      </c>
+      <c r="D342">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>134</v>
+      </c>
+      <c r="B343" t="s">
+        <v>350</v>
+      </c>
+      <c r="D343">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>134</v>
+      </c>
+      <c r="B344" t="s">
+        <v>351</v>
+      </c>
+      <c r="D344">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>134</v>
+      </c>
+      <c r="B345" t="s">
+        <v>352</v>
+      </c>
+      <c r="D345">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>134</v>
+      </c>
+      <c r="B346" t="s">
+        <v>353</v>
+      </c>
+      <c r="D346">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>134</v>
+      </c>
+      <c r="B347" t="s">
+        <v>354</v>
+      </c>
+      <c r="D347">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>134</v>
+      </c>
+      <c r="B348" t="s">
+        <v>355</v>
+      </c>
+      <c r="D348">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>134</v>
+      </c>
+      <c r="B349" t="s">
+        <v>356</v>
+      </c>
+      <c r="D349">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>134</v>
+      </c>
+      <c r="B350" t="s">
+        <v>357</v>
+      </c>
+      <c r="D350">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>134</v>
+      </c>
+      <c r="B351" t="s">
+        <v>358</v>
+      </c>
+      <c r="D351">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>134</v>
+      </c>
+      <c r="B352" t="s">
+        <v>359</v>
+      </c>
+      <c r="D352">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>134</v>
+      </c>
+      <c r="B353" t="s">
+        <v>360</v>
+      </c>
+      <c r="D353">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>134</v>
+      </c>
+      <c r="B354" t="s">
+        <v>361</v>
+      </c>
+      <c r="D354">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>134</v>
+      </c>
+      <c r="B355" t="s">
+        <v>362</v>
+      </c>
+      <c r="D355">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>134</v>
+      </c>
+      <c r="B356" t="s">
+        <v>363</v>
+      </c>
+      <c r="D356">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>134</v>
+      </c>
+      <c r="B357" t="s">
+        <v>364</v>
+      </c>
+      <c r="D357">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>134</v>
+      </c>
+      <c r="B358" t="s">
+        <v>365</v>
+      </c>
+      <c r="D358">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>134</v>
+      </c>
+      <c r="B359" t="s">
+        <v>366</v>
+      </c>
+      <c r="D359">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>134</v>
+      </c>
+      <c r="B360" t="s">
+        <v>367</v>
+      </c>
+      <c r="D360">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>134</v>
+      </c>
+      <c r="B361" t="s">
+        <v>368</v>
+      </c>
+      <c r="D361">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>134</v>
+      </c>
+      <c r="B362" t="s">
+        <v>369</v>
+      </c>
+      <c r="D362">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>134</v>
+      </c>
+      <c r="B363" t="s">
+        <v>370</v>
+      </c>
+      <c r="D363">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>134</v>
+      </c>
+      <c r="B364" t="s">
+        <v>371</v>
+      </c>
+      <c r="D364">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>134</v>
+      </c>
+      <c r="B365" t="s">
+        <v>372</v>
+      </c>
+      <c r="D365">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>134</v>
+      </c>
+      <c r="B366" t="s">
+        <v>373</v>
+      </c>
+      <c r="D366">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>134</v>
+      </c>
+      <c r="B367" t="s">
+        <v>374</v>
+      </c>
+      <c r="D367">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>134</v>
+      </c>
+      <c r="B368" t="s">
+        <v>375</v>
+      </c>
+      <c r="D368">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>134</v>
+      </c>
+      <c r="B369" t="s">
+        <v>376</v>
+      </c>
+      <c r="D369">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>135</v>
+      </c>
+      <c r="B371" t="s">
+        <v>377</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>135</v>
+      </c>
+      <c r="B372" t="s">
+        <v>378</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>135</v>
+      </c>
+      <c r="B373" t="s">
+        <v>379</v>
+      </c>
+      <c r="D373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>135</v>
+      </c>
+      <c r="B374" t="s">
+        <v>380</v>
+      </c>
+      <c r="D374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>135</v>
+      </c>
+      <c r="B375" t="s">
+        <v>381</v>
+      </c>
+      <c r="D375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>135</v>
+      </c>
+      <c r="B376" t="s">
+        <v>382</v>
+      </c>
+      <c r="D376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>135</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>135</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D378">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>135</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D379">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>135</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>135</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D381">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>135</v>
+      </c>
+      <c r="B382" t="s">
+        <v>388</v>
+      </c>
+      <c r="D382">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>135</v>
+      </c>
+      <c r="B383" t="s">
+        <v>389</v>
+      </c>
+      <c r="D383">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>135</v>
+      </c>
+      <c r="B384" t="s">
+        <v>390</v>
+      </c>
+      <c r="D384">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>135</v>
+      </c>
+      <c r="B385" t="s">
+        <v>391</v>
+      </c>
+      <c r="D385">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>135</v>
+      </c>
+      <c r="B386" t="s">
+        <v>392</v>
+      </c>
+      <c r="D386">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>135</v>
+      </c>
+      <c r="B387" t="s">
+        <v>393</v>
+      </c>
+      <c r="D387">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>135</v>
+      </c>
+      <c r="B388" t="s">
+        <v>394</v>
+      </c>
+      <c r="D388">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>135</v>
+      </c>
+      <c r="B389" t="s">
+        <v>395</v>
+      </c>
+      <c r="D389">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>135</v>
+      </c>
+      <c r="B390" t="s">
+        <v>396</v>
+      </c>
+      <c r="D390">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>135</v>
+      </c>
+      <c r="B391" t="s">
+        <v>397</v>
+      </c>
+      <c r="D391">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>135</v>
+      </c>
+      <c r="B392" t="s">
+        <v>398</v>
+      </c>
+      <c r="D392">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>135</v>
+      </c>
+      <c r="B393" t="s">
+        <v>399</v>
+      </c>
+      <c r="D393">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>135</v>
+      </c>
+      <c r="B394" t="s">
+        <v>400</v>
+      </c>
+      <c r="D394">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>135</v>
+      </c>
+      <c r="B395" t="s">
+        <v>401</v>
+      </c>
+      <c r="D395">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>135</v>
+      </c>
+      <c r="B396" t="s">
+        <v>402</v>
+      </c>
+      <c r="D396">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>135</v>
+      </c>
+      <c r="B397" t="s">
+        <v>403</v>
+      </c>
+      <c r="D397">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>135</v>
+      </c>
+      <c r="B398" t="s">
+        <v>404</v>
+      </c>
+      <c r="D398">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>135</v>
+      </c>
+      <c r="B399" t="s">
+        <v>405</v>
+      </c>
+      <c r="D399">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>135</v>
+      </c>
+      <c r="B400" t="s">
+        <v>406</v>
+      </c>
+      <c r="D400">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>135</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D401">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>135</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D402">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>135</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D403">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>135</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D404">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>135</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D405">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>135</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D406">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>135</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D407">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>135</v>
+      </c>
+      <c r="B408" t="s">
+        <v>414</v>
+      </c>
+      <c r="D408">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>135</v>
+      </c>
+      <c r="B409" t="s">
+        <v>415</v>
+      </c>
+      <c r="D409">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>135</v>
+      </c>
+      <c r="B410" t="s">
+        <v>416</v>
+      </c>
+      <c r="D410">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>135</v>
+      </c>
+      <c r="B411" t="s">
+        <v>417</v>
+      </c>
+      <c r="D411">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>135</v>
+      </c>
+      <c r="B412" t="s">
+        <v>418</v>
+      </c>
+      <c r="D412">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>135</v>
+      </c>
+      <c r="B413" t="s">
+        <v>419</v>
+      </c>
+      <c r="D413">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>135</v>
+      </c>
+      <c r="B414" t="s">
+        <v>420</v>
+      </c>
+      <c r="D414">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>135</v>
+      </c>
+      <c r="B415" t="s">
+        <v>421</v>
+      </c>
+      <c r="D415">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>135</v>
+      </c>
+      <c r="B416" t="s">
+        <v>422</v>
+      </c>
+      <c r="D416">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>136</v>
+      </c>
+      <c r="B418" t="s">
+        <v>423</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>136</v>
+      </c>
+      <c r="B419" t="s">
+        <v>424</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>136</v>
+      </c>
+      <c r="B420" t="s">
+        <v>425</v>
+      </c>
+      <c r="D420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>136</v>
+      </c>
+      <c r="B421" t="s">
+        <v>426</v>
+      </c>
+      <c r="D421">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>136</v>
+      </c>
+      <c r="B422" t="s">
+        <v>427</v>
+      </c>
+      <c r="D422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>136</v>
+      </c>
+      <c r="B423" t="s">
+        <v>428</v>
+      </c>
+      <c r="D423">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>136</v>
+      </c>
+      <c r="B424" t="s">
+        <v>429</v>
+      </c>
+      <c r="D424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>136</v>
+      </c>
+      <c r="B425" t="s">
+        <v>430</v>
+      </c>
+      <c r="D425">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>136</v>
+      </c>
+      <c r="B426" t="s">
+        <v>431</v>
+      </c>
+      <c r="D426">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>136</v>
+      </c>
+      <c r="B427" t="s">
+        <v>432</v>
+      </c>
+      <c r="D427">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>136</v>
+      </c>
+      <c r="B428" t="s">
+        <v>433</v>
+      </c>
+      <c r="D428">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>136</v>
+      </c>
+      <c r="B429" t="s">
+        <v>434</v>
+      </c>
+      <c r="D429">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>136</v>
+      </c>
+      <c r="B430" t="s">
+        <v>435</v>
+      </c>
+      <c r="D430">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>136</v>
+      </c>
+      <c r="B431" t="s">
+        <v>436</v>
+      </c>
+      <c r="D431">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>136</v>
+      </c>
+      <c r="B432" t="s">
+        <v>437</v>
+      </c>
+      <c r="D432">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>136</v>
+      </c>
+      <c r="B433" t="s">
+        <v>438</v>
+      </c>
+      <c r="D433">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>136</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D434">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>136</v>
+      </c>
+      <c r="B435" t="s">
+        <v>440</v>
+      </c>
+      <c r="D435">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>136</v>
+      </c>
+      <c r="B436" t="s">
+        <v>441</v>
+      </c>
+      <c r="D436">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>136</v>
+      </c>
+      <c r="B437" t="s">
+        <v>442</v>
+      </c>
+      <c r="D437">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>136</v>
+      </c>
+      <c r="B438" t="s">
+        <v>443</v>
+      </c>
+      <c r="D438">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>136</v>
+      </c>
+      <c r="B439" t="s">
+        <v>444</v>
+      </c>
+      <c r="D439">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>136</v>
+      </c>
+      <c r="B440" t="s">
+        <v>445</v>
+      </c>
+      <c r="D440">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>136</v>
+      </c>
+      <c r="B441" t="s">
+        <v>446</v>
+      </c>
+      <c r="D441">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>136</v>
+      </c>
+      <c r="B442" t="s">
+        <v>447</v>
+      </c>
+      <c r="D442">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" t="s">
+        <v>136</v>
+      </c>
+      <c r="B443" t="s">
+        <v>448</v>
+      </c>
+      <c r="D443">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" t="s">
+        <v>136</v>
+      </c>
+      <c r="B444" t="s">
+        <v>449</v>
+      </c>
+      <c r="D444">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" t="s">
+        <v>136</v>
+      </c>
+      <c r="B445" t="s">
+        <v>450</v>
+      </c>
+      <c r="D445">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" t="s">
+        <v>136</v>
+      </c>
+      <c r="B446" t="s">
+        <v>451</v>
+      </c>
+      <c r="D446">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" t="s">
+        <v>136</v>
+      </c>
+      <c r="B447" t="s">
+        <v>452</v>
+      </c>
+      <c r="D447">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" t="s">
+        <v>136</v>
+      </c>
+      <c r="B448" t="s">
+        <v>453</v>
+      </c>
+      <c r="D448">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>136</v>
+      </c>
+      <c r="B449" t="s">
+        <v>454</v>
+      </c>
+      <c r="D449">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" t="s">
+        <v>136</v>
+      </c>
+      <c r="B450" t="s">
+        <v>455</v>
+      </c>
+      <c r="D450">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" t="s">
+        <v>136</v>
+      </c>
+      <c r="B451" t="s">
+        <v>456</v>
+      </c>
+      <c r="D451">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" t="s">
+        <v>136</v>
+      </c>
+      <c r="B452" t="s">
+        <v>457</v>
+      </c>
+      <c r="D452">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>136</v>
+      </c>
+      <c r="B453" t="s">
+        <v>458</v>
+      </c>
+      <c r="D453">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>136</v>
+      </c>
+      <c r="B454" t="s">
+        <v>459</v>
+      </c>
+      <c r="D454">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>136</v>
+      </c>
+      <c r="B455" t="s">
+        <v>460</v>
+      </c>
+      <c r="D455">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" t="s">
+        <v>136</v>
+      </c>
+      <c r="B456" t="s">
+        <v>461</v>
+      </c>
+      <c r="D456">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" t="s">
+        <v>137</v>
+      </c>
+      <c r="B458" t="s">
+        <v>462</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" t="s">
+        <v>137</v>
+      </c>
+      <c r="B459" t="s">
+        <v>463</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" t="s">
+        <v>137</v>
+      </c>
+      <c r="B460" t="s">
+        <v>464</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" t="s">
+        <v>137</v>
+      </c>
+      <c r="B461" t="s">
+        <v>465</v>
+      </c>
+      <c r="D461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" t="s">
+        <v>137</v>
+      </c>
+      <c r="B462" t="s">
+        <v>466</v>
+      </c>
+      <c r="D462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" t="s">
+        <v>137</v>
+      </c>
+      <c r="B463" t="s">
+        <v>467</v>
+      </c>
+      <c r="D463">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" t="s">
+        <v>137</v>
+      </c>
+      <c r="B464" t="s">
+        <v>468</v>
+      </c>
+      <c r="D464">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" t="s">
+        <v>137</v>
+      </c>
+      <c r="B465" t="s">
+        <v>469</v>
+      </c>
+      <c r="D465">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" t="s">
+        <v>137</v>
+      </c>
+      <c r="B466" t="s">
+        <v>470</v>
+      </c>
+      <c r="D466">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" t="s">
+        <v>137</v>
+      </c>
+      <c r="B467" t="s">
+        <v>471</v>
+      </c>
+      <c r="D467">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>137</v>
+      </c>
+      <c r="B468" t="s">
+        <v>472</v>
+      </c>
+      <c r="D468">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>137</v>
+      </c>
+      <c r="B469" t="s">
+        <v>473</v>
+      </c>
+      <c r="D469">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>137</v>
+      </c>
+      <c r="B470" t="s">
+        <v>474</v>
+      </c>
+      <c r="D470">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
+        <v>137</v>
+      </c>
+      <c r="B471" t="s">
+        <v>475</v>
+      </c>
+      <c r="D471">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>137</v>
+      </c>
+      <c r="B472" t="s">
+        <v>476</v>
+      </c>
+      <c r="D472">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>137</v>
+      </c>
+      <c r="B473" t="s">
+        <v>477</v>
+      </c>
+      <c r="D473">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>137</v>
+      </c>
+      <c r="B474" t="s">
+        <v>478</v>
+      </c>
+      <c r="D474">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>137</v>
+      </c>
+      <c r="B475" t="s">
+        <v>479</v>
+      </c>
+      <c r="D475">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>137</v>
+      </c>
+      <c r="B476" t="s">
+        <v>480</v>
+      </c>
+      <c r="D476">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" t="s">
+        <v>137</v>
+      </c>
+      <c r="B477" t="s">
+        <v>481</v>
+      </c>
+      <c r="D477">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
+        <v>137</v>
+      </c>
+      <c r="B478" t="s">
+        <v>482</v>
+      </c>
+      <c r="D478">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>137</v>
+      </c>
+      <c r="B479" t="s">
+        <v>483</v>
+      </c>
+      <c r="D479">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>137</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D480">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>137</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D481">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
+        <v>137</v>
+      </c>
+      <c r="B482" t="s">
+        <v>486</v>
+      </c>
+      <c r="D482">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" t="s">
+        <v>137</v>
+      </c>
+      <c r="B483" t="s">
+        <v>487</v>
+      </c>
+      <c r="D483">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" t="s">
+        <v>137</v>
+      </c>
+      <c r="B484" t="s">
+        <v>488</v>
+      </c>
+      <c r="D484">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
+        <v>137</v>
+      </c>
+      <c r="B485" t="s">
+        <v>489</v>
+      </c>
+      <c r="D485">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" t="s">
+        <v>137</v>
+      </c>
+      <c r="B486" t="s">
+        <v>490</v>
+      </c>
+      <c r="D486">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
+        <v>137</v>
+      </c>
+      <c r="B487" t="s">
+        <v>491</v>
+      </c>
+      <c r="D487">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>137</v>
+      </c>
+      <c r="B488" t="s">
+        <v>492</v>
+      </c>
+      <c r="D488">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>137</v>
+      </c>
+      <c r="B489" t="s">
+        <v>493</v>
+      </c>
+      <c r="D489">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" t="s">
+        <v>137</v>
+      </c>
+      <c r="B490" t="s">
+        <v>494</v>
+      </c>
+      <c r="D490">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" t="s">
+        <v>137</v>
+      </c>
+      <c r="B491" t="s">
+        <v>495</v>
+      </c>
+      <c r="D491">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" t="s">
+        <v>137</v>
+      </c>
+      <c r="B492" t="s">
+        <v>496</v>
+      </c>
+      <c r="D492">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>137</v>
+      </c>
+      <c r="B493" t="s">
+        <v>497</v>
+      </c>
+      <c r="D493">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" t="s">
+        <v>137</v>
+      </c>
+      <c r="B494" t="s">
+        <v>498</v>
+      </c>
+      <c r="D494">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" t="s">
+        <v>137</v>
+      </c>
+      <c r="B495" t="s">
+        <v>499</v>
+      </c>
+      <c r="D495">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>137</v>
+      </c>
+      <c r="B496" t="s">
+        <v>500</v>
+      </c>
+      <c r="D496">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" t="s">
+        <v>137</v>
+      </c>
+      <c r="B497" t="s">
+        <v>501</v>
+      </c>
+      <c r="D497">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" t="s">
+        <v>137</v>
+      </c>
+      <c r="B498" t="s">
+        <v>502</v>
+      </c>
+      <c r="D498">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" t="s">
+        <v>137</v>
+      </c>
+      <c r="B499" t="s">
+        <v>503</v>
+      </c>
+      <c r="D499">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" t="s">
+        <v>137</v>
+      </c>
+      <c r="B500" t="s">
+        <v>504</v>
+      </c>
+      <c r="D500">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" t="s">
+        <v>137</v>
+      </c>
+      <c r="B501" t="s">
+        <v>505</v>
+      </c>
+      <c r="D501">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" t="s">
+        <v>137</v>
+      </c>
+      <c r="B502" t="s">
+        <v>506</v>
+      </c>
+      <c r="D502">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" t="s">
+        <v>137</v>
+      </c>
+      <c r="B503" t="s">
+        <v>507</v>
+      </c>
+      <c r="D503">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" t="s">
+        <v>137</v>
+      </c>
+      <c r="B504" t="s">
+        <v>508</v>
+      </c>
+      <c r="D504">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" t="s">
+        <v>138</v>
+      </c>
+      <c r="B506" t="s">
+        <v>509</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" t="s">
+        <v>138</v>
+      </c>
+      <c r="B507" t="s">
+        <v>510</v>
+      </c>
+      <c r="D507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" t="s">
+        <v>138</v>
+      </c>
+      <c r="B508" t="s">
+        <v>511</v>
+      </c>
+      <c r="D508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" t="s">
+        <v>138</v>
+      </c>
+      <c r="B509" t="s">
+        <v>512</v>
+      </c>
+      <c r="D509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" t="s">
+        <v>138</v>
+      </c>
+      <c r="B510" t="s">
+        <v>513</v>
+      </c>
+      <c r="D510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" t="s">
+        <v>138</v>
+      </c>
+      <c r="B511" t="s">
+        <v>514</v>
+      </c>
+      <c r="D511">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" t="s">
+        <v>138</v>
+      </c>
+      <c r="B512" t="s">
+        <v>515</v>
+      </c>
+      <c r="D512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" t="s">
+        <v>138</v>
+      </c>
+      <c r="B513" t="s">
+        <v>516</v>
+      </c>
+      <c r="D513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" t="s">
+        <v>138</v>
+      </c>
+      <c r="B514" t="s">
+        <v>517</v>
+      </c>
+      <c r="D514">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" t="s">
+        <v>138</v>
+      </c>
+      <c r="B515" t="s">
+        <v>518</v>
+      </c>
+      <c r="D515">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" t="s">
+        <v>138</v>
+      </c>
+      <c r="B516" t="s">
+        <v>519</v>
+      </c>
+      <c r="D516">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" t="s">
+        <v>138</v>
+      </c>
+      <c r="B517" t="s">
+        <v>520</v>
+      </c>
+      <c r="D517">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" t="s">
+        <v>138</v>
+      </c>
+      <c r="B518" t="s">
+        <v>521</v>
+      </c>
+      <c r="D518">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" t="s">
+        <v>138</v>
+      </c>
+      <c r="B519" t="s">
+        <v>522</v>
+      </c>
+      <c r="D519">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" t="s">
+        <v>138</v>
+      </c>
+      <c r="B520" t="s">
+        <v>523</v>
+      </c>
+      <c r="D520">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" t="s">
+        <v>138</v>
+      </c>
+      <c r="B521" t="s">
+        <v>524</v>
+      </c>
+      <c r="D521">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>138</v>
+      </c>
+      <c r="B522" t="s">
+        <v>525</v>
+      </c>
+      <c r="D522">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" t="s">
+        <v>138</v>
+      </c>
+      <c r="B523" t="s">
+        <v>526</v>
+      </c>
+      <c r="D523">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" t="s">
+        <v>138</v>
+      </c>
+      <c r="B524" t="s">
+        <v>527</v>
+      </c>
+      <c r="D524">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" t="s">
+        <v>138</v>
+      </c>
+      <c r="B525" t="s">
+        <v>528</v>
+      </c>
+      <c r="D525">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" t="s">
+        <v>138</v>
+      </c>
+      <c r="B526" t="s">
+        <v>529</v>
+      </c>
+      <c r="D526">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" t="s">
+        <v>138</v>
+      </c>
+      <c r="B527" t="s">
+        <v>530</v>
+      </c>
+      <c r="D527">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" t="s">
+        <v>138</v>
+      </c>
+      <c r="B528" t="s">
+        <v>531</v>
+      </c>
+      <c r="D528">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" t="s">
+        <v>138</v>
+      </c>
+      <c r="B529" t="s">
+        <v>532</v>
+      </c>
+      <c r="D529">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" t="s">
+        <v>138</v>
+      </c>
+      <c r="B530" t="s">
+        <v>533</v>
+      </c>
+      <c r="D530">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" t="s">
+        <v>138</v>
+      </c>
+      <c r="B531" t="s">
+        <v>534</v>
+      </c>
+      <c r="D531">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" t="s">
+        <v>138</v>
+      </c>
+      <c r="B532" t="s">
+        <v>535</v>
+      </c>
+      <c r="D532">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" t="s">
+        <v>138</v>
+      </c>
+      <c r="B533" t="s">
+        <v>536</v>
+      </c>
+      <c r="D533">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" t="s">
+        <v>138</v>
+      </c>
+      <c r="B534" t="s">
+        <v>537</v>
+      </c>
+      <c r="D534">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" t="s">
+        <v>138</v>
+      </c>
+      <c r="B535" t="s">
+        <v>538</v>
+      </c>
+      <c r="D535">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" t="s">
+        <v>138</v>
+      </c>
+      <c r="B536" t="s">
+        <v>539</v>
+      </c>
+      <c r="D536">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" t="s">
+        <v>138</v>
+      </c>
+      <c r="B537" t="s">
+        <v>540</v>
+      </c>
+      <c r="D537">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" t="s">
+        <v>138</v>
+      </c>
+      <c r="B538" t="s">
+        <v>541</v>
+      </c>
+      <c r="D538">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" t="s">
+        <v>138</v>
+      </c>
+      <c r="B539" t="s">
+        <v>542</v>
+      </c>
+      <c r="D539">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" t="s">
+        <v>138</v>
+      </c>
+      <c r="B540" t="s">
+        <v>543</v>
+      </c>
+      <c r="D540">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" t="s">
+        <v>138</v>
+      </c>
+      <c r="B541" t="s">
+        <v>544</v>
+      </c>
+      <c r="D541">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" t="s">
+        <v>138</v>
+      </c>
+      <c r="B542" t="s">
+        <v>545</v>
+      </c>
+      <c r="D542">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" t="s">
+        <v>138</v>
+      </c>
+      <c r="B543" t="s">
+        <v>546</v>
+      </c>
+      <c r="D543">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" t="s">
+        <v>138</v>
+      </c>
+      <c r="B544" t="s">
+        <v>547</v>
+      </c>
+      <c r="D544">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" t="s">
+        <v>138</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D545">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" t="s">
+        <v>138</v>
+      </c>
+      <c r="B546" t="s">
+        <v>549</v>
+      </c>
+      <c r="D546">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" t="s">
+        <v>138</v>
+      </c>
+      <c r="B547" t="s">
+        <v>550</v>
+      </c>
+      <c r="D547">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" t="s">
+        <v>138</v>
+      </c>
+      <c r="B548" t="s">
+        <v>551</v>
+      </c>
+      <c r="D548">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="546">
   <si>
     <t>CA00000001</t>
   </si>
@@ -1290,9 +1290,6 @@
     <t>V000000700</t>
   </si>
   <si>
-    <t>V000000701</t>
-  </si>
-  <si>
     <t>V000000702</t>
   </si>
   <si>
@@ -1404,12 +1401,6 @@
     <t>V000000743</t>
   </si>
   <si>
-    <t>V000000800</t>
-  </si>
-  <si>
-    <t>V000000802</t>
-  </si>
-  <si>
     <t>V000000804</t>
   </si>
   <si>
@@ -1503,9 +1494,6 @@
     <t>V000000833</t>
   </si>
   <si>
-    <t>V000000834</t>
-  </si>
-  <si>
     <t>V000000835</t>
   </si>
   <si>
@@ -1584,9 +1572,6 @@
     <t>V000000916</t>
   </si>
   <si>
-    <t>V000000919</t>
-  </si>
-  <si>
     <t>V000000921</t>
   </si>
   <si>
@@ -1648,9 +1633,6 @@
   </si>
   <si>
     <t>V000000943</t>
-  </si>
-  <si>
-    <t>V000000944</t>
   </si>
   <si>
     <t>V000000945</t>
@@ -2011,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D548"/>
+  <dimension ref="A1:D547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="D506" sqref="D506:D548"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="C540" sqref="C540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6532,7 +6514,7 @@
         <v>136</v>
       </c>
       <c r="B419" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="D419">
         <v>2</v>
@@ -6543,7 +6525,7 @@
         <v>136</v>
       </c>
       <c r="B420" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D420">
         <v>3</v>
@@ -6554,7 +6536,7 @@
         <v>136</v>
       </c>
       <c r="B421" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D421">
         <v>4</v>
@@ -6565,7 +6547,7 @@
         <v>136</v>
       </c>
       <c r="B422" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D422">
         <v>5</v>
@@ -6576,7 +6558,7 @@
         <v>136</v>
       </c>
       <c r="B423" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D423">
         <v>6</v>
@@ -6587,7 +6569,7 @@
         <v>136</v>
       </c>
       <c r="B424" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D424">
         <v>7</v>
@@ -6598,7 +6580,7 @@
         <v>136</v>
       </c>
       <c r="B425" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D425">
         <v>8</v>
@@ -6609,7 +6591,7 @@
         <v>136</v>
       </c>
       <c r="B426" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D426">
         <v>9</v>
@@ -6620,7 +6602,7 @@
         <v>136</v>
       </c>
       <c r="B427" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D427">
         <v>10</v>
@@ -6631,7 +6613,7 @@
         <v>136</v>
       </c>
       <c r="B428" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D428">
         <v>11</v>
@@ -6642,7 +6624,7 @@
         <v>136</v>
       </c>
       <c r="B429" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D429">
         <v>12</v>
@@ -6653,7 +6635,7 @@
         <v>136</v>
       </c>
       <c r="B430" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D430">
         <v>13</v>
@@ -6664,7 +6646,7 @@
         <v>136</v>
       </c>
       <c r="B431" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D431">
         <v>14</v>
@@ -6675,7 +6657,7 @@
         <v>136</v>
       </c>
       <c r="B432" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D432">
         <v>15</v>
@@ -6686,7 +6668,7 @@
         <v>136</v>
       </c>
       <c r="B433" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D433">
         <v>16</v>
@@ -6697,7 +6679,7 @@
         <v>136</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D434">
         <v>17</v>
@@ -6708,7 +6690,7 @@
         <v>136</v>
       </c>
       <c r="B435" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D435">
         <v>18</v>
@@ -6719,7 +6701,7 @@
         <v>136</v>
       </c>
       <c r="B436" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D436">
         <v>19</v>
@@ -6730,7 +6712,7 @@
         <v>136</v>
       </c>
       <c r="B437" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D437">
         <v>20</v>
@@ -6741,7 +6723,7 @@
         <v>136</v>
       </c>
       <c r="B438" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D438">
         <v>21</v>
@@ -6752,7 +6734,7 @@
         <v>136</v>
       </c>
       <c r="B439" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D439">
         <v>22</v>
@@ -6763,7 +6745,7 @@
         <v>136</v>
       </c>
       <c r="B440" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D440">
         <v>23</v>
@@ -6774,7 +6756,7 @@
         <v>136</v>
       </c>
       <c r="B441" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D441">
         <v>24</v>
@@ -6785,7 +6767,7 @@
         <v>136</v>
       </c>
       <c r="B442" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D442">
         <v>25</v>
@@ -6796,7 +6778,7 @@
         <v>136</v>
       </c>
       <c r="B443" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D443">
         <v>26</v>
@@ -6807,7 +6789,7 @@
         <v>136</v>
       </c>
       <c r="B444" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D444">
         <v>27</v>
@@ -6818,7 +6800,7 @@
         <v>136</v>
       </c>
       <c r="B445" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D445">
         <v>28</v>
@@ -6829,7 +6811,7 @@
         <v>136</v>
       </c>
       <c r="B446" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D446">
         <v>29</v>
@@ -6840,7 +6822,7 @@
         <v>136</v>
       </c>
       <c r="B447" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D447">
         <v>30</v>
@@ -6851,7 +6833,7 @@
         <v>136</v>
       </c>
       <c r="B448" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D448">
         <v>31</v>
@@ -6862,7 +6844,7 @@
         <v>136</v>
       </c>
       <c r="B449" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D449">
         <v>32</v>
@@ -6873,7 +6855,7 @@
         <v>136</v>
       </c>
       <c r="B450" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D450">
         <v>33</v>
@@ -6884,7 +6866,7 @@
         <v>136</v>
       </c>
       <c r="B451" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D451">
         <v>34</v>
@@ -6895,7 +6877,7 @@
         <v>136</v>
       </c>
       <c r="B452" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D452">
         <v>35</v>
@@ -6906,7 +6888,7 @@
         <v>136</v>
       </c>
       <c r="B453" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D453">
         <v>36</v>
@@ -6917,7 +6899,7 @@
         <v>136</v>
       </c>
       <c r="B454" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D454">
         <v>37</v>
@@ -6928,7 +6910,7 @@
         <v>136</v>
       </c>
       <c r="B455" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D455">
         <v>38</v>
@@ -6939,7 +6921,7 @@
         <v>136</v>
       </c>
       <c r="B456" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D456">
         <v>39</v>
@@ -6950,7 +6932,7 @@
         <v>137</v>
       </c>
       <c r="B458" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -6961,7 +6943,7 @@
         <v>137</v>
       </c>
       <c r="B459" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D459">
         <v>2</v>
@@ -6972,7 +6954,7 @@
         <v>137</v>
       </c>
       <c r="B460" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D460">
         <v>3</v>
@@ -6983,7 +6965,7 @@
         <v>137</v>
       </c>
       <c r="B461" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D461">
         <v>4</v>
@@ -6994,7 +6976,7 @@
         <v>137</v>
       </c>
       <c r="B462" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D462">
         <v>5</v>
@@ -7005,7 +6987,7 @@
         <v>137</v>
       </c>
       <c r="B463" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D463">
         <v>6</v>
@@ -7016,7 +6998,7 @@
         <v>137</v>
       </c>
       <c r="B464" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D464">
         <v>7</v>
@@ -7027,7 +7009,7 @@
         <v>137</v>
       </c>
       <c r="B465" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D465">
         <v>8</v>
@@ -7038,7 +7020,7 @@
         <v>137</v>
       </c>
       <c r="B466" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D466">
         <v>9</v>
@@ -7049,7 +7031,7 @@
         <v>137</v>
       </c>
       <c r="B467" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D467">
         <v>10</v>
@@ -7060,7 +7042,7 @@
         <v>137</v>
       </c>
       <c r="B468" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D468">
         <v>11</v>
@@ -7071,7 +7053,7 @@
         <v>137</v>
       </c>
       <c r="B469" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D469">
         <v>12</v>
@@ -7082,7 +7064,7 @@
         <v>137</v>
       </c>
       <c r="B470" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D470">
         <v>13</v>
@@ -7093,7 +7075,7 @@
         <v>137</v>
       </c>
       <c r="B471" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D471">
         <v>14</v>
@@ -7104,7 +7086,7 @@
         <v>137</v>
       </c>
       <c r="B472" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D472">
         <v>15</v>
@@ -7115,7 +7097,7 @@
         <v>137</v>
       </c>
       <c r="B473" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D473">
         <v>16</v>
@@ -7126,7 +7108,7 @@
         <v>137</v>
       </c>
       <c r="B474" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D474">
         <v>17</v>
@@ -7137,7 +7119,7 @@
         <v>137</v>
       </c>
       <c r="B475" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D475">
         <v>18</v>
@@ -7148,7 +7130,7 @@
         <v>137</v>
       </c>
       <c r="B476" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D476">
         <v>19</v>
@@ -7159,7 +7141,7 @@
         <v>137</v>
       </c>
       <c r="B477" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D477">
         <v>20</v>
@@ -7170,7 +7152,7 @@
         <v>137</v>
       </c>
       <c r="B478" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D478">
         <v>21</v>
@@ -7180,8 +7162,8 @@
       <c r="A479" t="s">
         <v>137</v>
       </c>
-      <c r="B479" t="s">
-        <v>483</v>
+      <c r="B479" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="D479">
         <v>22</v>
@@ -7192,7 +7174,7 @@
         <v>137</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D480">
         <v>23</v>
@@ -7202,8 +7184,8 @@
       <c r="A481" t="s">
         <v>137</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>485</v>
+      <c r="B481" t="s">
+        <v>483</v>
       </c>
       <c r="D481">
         <v>24</v>
@@ -7214,7 +7196,7 @@
         <v>137</v>
       </c>
       <c r="B482" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D482">
         <v>25</v>
@@ -7225,7 +7207,7 @@
         <v>137</v>
       </c>
       <c r="B483" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D483">
         <v>26</v>
@@ -7236,7 +7218,7 @@
         <v>137</v>
       </c>
       <c r="B484" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D484">
         <v>27</v>
@@ -7247,7 +7229,7 @@
         <v>137</v>
       </c>
       <c r="B485" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D485">
         <v>28</v>
@@ -7258,7 +7240,7 @@
         <v>137</v>
       </c>
       <c r="B486" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D486">
         <v>29</v>
@@ -7269,7 +7251,7 @@
         <v>137</v>
       </c>
       <c r="B487" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D487">
         <v>30</v>
@@ -7280,7 +7262,7 @@
         <v>137</v>
       </c>
       <c r="B488" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D488">
         <v>31</v>
@@ -7291,7 +7273,7 @@
         <v>137</v>
       </c>
       <c r="B489" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D489">
         <v>32</v>
@@ -7302,7 +7284,7 @@
         <v>137</v>
       </c>
       <c r="B490" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="D490">
         <v>33</v>
@@ -7313,7 +7295,7 @@
         <v>137</v>
       </c>
       <c r="B491" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D491">
         <v>34</v>
@@ -7324,7 +7306,7 @@
         <v>137</v>
       </c>
       <c r="B492" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D492">
         <v>35</v>
@@ -7335,7 +7317,7 @@
         <v>137</v>
       </c>
       <c r="B493" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D493">
         <v>36</v>
@@ -7346,7 +7328,7 @@
         <v>137</v>
       </c>
       <c r="B494" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D494">
         <v>37</v>
@@ -7357,7 +7339,7 @@
         <v>137</v>
       </c>
       <c r="B495" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D495">
         <v>38</v>
@@ -7368,7 +7350,7 @@
         <v>137</v>
       </c>
       <c r="B496" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D496">
         <v>39</v>
@@ -7379,7 +7361,7 @@
         <v>137</v>
       </c>
       <c r="B497" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D497">
         <v>40</v>
@@ -7390,7 +7372,7 @@
         <v>137</v>
       </c>
       <c r="B498" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D498">
         <v>41</v>
@@ -7401,7 +7383,7 @@
         <v>137</v>
       </c>
       <c r="B499" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D499">
         <v>42</v>
@@ -7412,7 +7394,7 @@
         <v>137</v>
       </c>
       <c r="B500" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D500">
         <v>43</v>
@@ -7423,7 +7405,7 @@
         <v>137</v>
       </c>
       <c r="B501" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D501">
         <v>44</v>
@@ -7434,7 +7416,7 @@
         <v>137</v>
       </c>
       <c r="B502" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D502">
         <v>45</v>
@@ -7445,21 +7427,21 @@
         <v>137</v>
       </c>
       <c r="B503" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D503">
         <v>46</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
-      <c r="A504" t="s">
-        <v>137</v>
-      </c>
-      <c r="B504" t="s">
-        <v>508</v>
-      </c>
-      <c r="D504">
-        <v>47</v>
+    <row r="505" spans="1:4">
+      <c r="A505" t="s">
+        <v>138</v>
+      </c>
+      <c r="B505" t="s">
+        <v>505</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7467,10 +7449,10 @@
         <v>138</v>
       </c>
       <c r="B506" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7478,10 +7460,10 @@
         <v>138</v>
       </c>
       <c r="B507" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D507">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7489,10 +7471,10 @@
         <v>138</v>
       </c>
       <c r="B508" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D508">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7500,10 +7482,10 @@
         <v>138</v>
       </c>
       <c r="B509" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D509">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7511,10 +7493,10 @@
         <v>138</v>
       </c>
       <c r="B510" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D510">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7522,10 +7504,10 @@
         <v>138</v>
       </c>
       <c r="B511" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D511">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7533,10 +7515,10 @@
         <v>138</v>
       </c>
       <c r="B512" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D512">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7544,10 +7526,10 @@
         <v>138</v>
       </c>
       <c r="B513" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D513">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7555,10 +7537,10 @@
         <v>138</v>
       </c>
       <c r="B514" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D514">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7566,10 +7548,10 @@
         <v>138</v>
       </c>
       <c r="B515" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D515">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7577,10 +7559,10 @@
         <v>138</v>
       </c>
       <c r="B516" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D516">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7588,10 +7570,10 @@
         <v>138</v>
       </c>
       <c r="B517" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D517">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7599,10 +7581,10 @@
         <v>138</v>
       </c>
       <c r="B518" t="s">
-        <v>521</v>
+        <v>337</v>
       </c>
       <c r="D518">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7610,10 +7592,10 @@
         <v>138</v>
       </c>
       <c r="B519" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D519">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7621,10 +7603,10 @@
         <v>138</v>
       </c>
       <c r="B520" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D520">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7632,10 +7614,10 @@
         <v>138</v>
       </c>
       <c r="B521" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D521">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7643,10 +7625,10 @@
         <v>138</v>
       </c>
       <c r="B522" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D522">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7654,10 +7636,10 @@
         <v>138</v>
       </c>
       <c r="B523" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D523">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7665,10 +7647,10 @@
         <v>138</v>
       </c>
       <c r="B524" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D524">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7676,10 +7658,10 @@
         <v>138</v>
       </c>
       <c r="B525" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D525">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7687,10 +7669,10 @@
         <v>138</v>
       </c>
       <c r="B526" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D526">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7698,10 +7680,10 @@
         <v>138</v>
       </c>
       <c r="B527" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D527">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7709,10 +7691,10 @@
         <v>138</v>
       </c>
       <c r="B528" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D528">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7720,10 +7702,10 @@
         <v>138</v>
       </c>
       <c r="B529" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D529">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7731,10 +7713,10 @@
         <v>138</v>
       </c>
       <c r="B530" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D530">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7742,10 +7724,10 @@
         <v>138</v>
       </c>
       <c r="B531" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D531">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7753,10 +7735,10 @@
         <v>138</v>
       </c>
       <c r="B532" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D532">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7764,10 +7746,10 @@
         <v>138</v>
       </c>
       <c r="B533" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D533">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7775,10 +7757,10 @@
         <v>138</v>
       </c>
       <c r="B534" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D534">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7786,10 +7768,10 @@
         <v>138</v>
       </c>
       <c r="B535" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D535">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7797,10 +7779,10 @@
         <v>138</v>
       </c>
       <c r="B536" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D536">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7808,10 +7790,10 @@
         <v>138</v>
       </c>
       <c r="B537" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D537">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7819,10 +7801,10 @@
         <v>138</v>
       </c>
       <c r="B538" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D538">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7830,10 +7812,10 @@
         <v>138</v>
       </c>
       <c r="B539" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D539">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7841,10 +7823,10 @@
         <v>138</v>
       </c>
       <c r="B540" t="s">
-        <v>543</v>
+        <v>102</v>
       </c>
       <c r="D540">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7852,10 +7834,10 @@
         <v>138</v>
       </c>
       <c r="B541" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D541">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7863,10 +7845,10 @@
         <v>138</v>
       </c>
       <c r="B542" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D542">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -7874,32 +7856,32 @@
         <v>138</v>
       </c>
       <c r="B543" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D543">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>138</v>
       </c>
-      <c r="B544" t="s">
-        <v>547</v>
+      <c r="B544" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="D544">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>138</v>
       </c>
-      <c r="B545" s="2" t="s">
-        <v>548</v>
+      <c r="B545" t="s">
+        <v>543</v>
       </c>
       <c r="D545">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -7907,10 +7889,10 @@
         <v>138</v>
       </c>
       <c r="B546" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D546">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -7918,20 +7900,9 @@
         <v>138</v>
       </c>
       <c r="B547" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D547">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4">
-      <c r="A548" t="s">
-        <v>138</v>
-      </c>
-      <c r="B548" t="s">
-        <v>551</v>
-      </c>
-      <c r="D548">
         <v>43</v>
       </c>
     </row>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="548">
   <si>
     <t>CA00000001</t>
   </si>
@@ -1654,6 +1654,12 @@
   </si>
   <si>
     <t>V000000951</t>
+  </si>
+  <si>
+    <t>V000007023</t>
+  </si>
+  <si>
+    <t>V000007024</t>
   </si>
 </sst>
 </file>
@@ -1993,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D547"/>
+  <dimension ref="A1:D550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="C540" sqref="C540"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3235,7 +3241,7 @@
       <c r="A114" t="s">
         <v>94</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D114">
@@ -3247,7 +3253,7 @@
         <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="D115">
         <v>24</v>
@@ -3258,7 +3264,7 @@
         <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D116">
         <v>25</v>
@@ -3269,7 +3275,7 @@
         <v>94</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D117">
         <v>26</v>
@@ -3280,7 +3286,7 @@
         <v>94</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D118">
         <v>27</v>
@@ -3291,7 +3297,7 @@
         <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>547</v>
       </c>
       <c r="D119">
         <v>28</v>
@@ -3302,7 +3308,7 @@
         <v>94</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D120">
         <v>29</v>
@@ -3313,7 +3319,7 @@
         <v>94</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D121">
         <v>30</v>
@@ -3324,7 +3330,7 @@
         <v>94</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D122">
         <v>31</v>
@@ -3335,7 +3341,7 @@
         <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D123">
         <v>32</v>
@@ -3346,7 +3352,7 @@
         <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D124">
         <v>33</v>
@@ -3357,7 +3363,7 @@
         <v>94</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D125">
         <v>34</v>
@@ -3368,43 +3374,32 @@
         <v>94</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D126">
         <v>35</v>
       </c>
     </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127">
+        <v>36</v>
+      </c>
+    </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>140</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>141</v>
-      </c>
-      <c r="D130">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3412,10 +3407,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3423,10 +3418,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3434,10 +3429,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3445,10 +3440,10 @@
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3456,10 +3451,10 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3467,10 +3462,10 @@
         <v>130</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3478,10 +3473,10 @@
         <v>130</v>
       </c>
       <c r="B137" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3489,10 +3484,10 @@
         <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D138">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3500,10 +3495,10 @@
         <v>130</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D139">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3511,10 +3506,10 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3522,10 +3517,10 @@
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3533,10 +3528,10 @@
         <v>130</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D142">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3544,10 +3539,10 @@
         <v>130</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D143">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3555,10 +3550,10 @@
         <v>130</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D144">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3566,10 +3561,10 @@
         <v>130</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D145">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3577,10 +3572,10 @@
         <v>130</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D146">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3588,10 +3583,10 @@
         <v>130</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3599,10 +3594,10 @@
         <v>130</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3610,10 +3605,10 @@
         <v>130</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D149">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3621,10 +3616,10 @@
         <v>130</v>
       </c>
       <c r="B150" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D150">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3632,10 +3627,10 @@
         <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D151">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3643,10 +3638,10 @@
         <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3654,10 +3649,10 @@
         <v>130</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D153">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3665,10 +3660,10 @@
         <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D154">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3676,10 +3671,10 @@
         <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="D155">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3687,10 +3682,10 @@
         <v>130</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D156">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3698,10 +3693,10 @@
         <v>130</v>
       </c>
       <c r="B157" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D157">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3709,10 +3704,10 @@
         <v>130</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D158">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3720,10 +3715,10 @@
         <v>130</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D159">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3731,10 +3726,10 @@
         <v>130</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D160">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3742,10 +3737,10 @@
         <v>130</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D161">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3753,10 +3748,10 @@
         <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D162">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3764,10 +3759,10 @@
         <v>130</v>
       </c>
       <c r="B163" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D163">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3775,10 +3770,10 @@
         <v>130</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D164">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3786,10 +3781,10 @@
         <v>130</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D165">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3797,10 +3792,10 @@
         <v>130</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D166">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3808,10 +3803,10 @@
         <v>130</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D167">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3819,10 +3814,10 @@
         <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D168">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3830,10 +3825,10 @@
         <v>130</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D169">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3841,10 +3836,10 @@
         <v>130</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D170">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3852,10 +3847,10 @@
         <v>130</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D171">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3863,10 +3858,10 @@
         <v>130</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D172">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3874,10 +3869,10 @@
         <v>130</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D173">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3885,10 +3880,10 @@
         <v>130</v>
       </c>
       <c r="B174" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D174">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3896,10 +3891,10 @@
         <v>130</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D175">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3907,10 +3902,10 @@
         <v>130</v>
       </c>
       <c r="B176" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D176">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3918,10 +3913,10 @@
         <v>130</v>
       </c>
       <c r="B177" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D177">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3929,10 +3924,10 @@
         <v>130</v>
       </c>
       <c r="B178" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D178">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3940,43 +3935,43 @@
         <v>130</v>
       </c>
       <c r="B179" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D179">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>130</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="D180">
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B181" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>131</v>
-      </c>
-      <c r="B183" t="s">
-        <v>192</v>
-      </c>
-      <c r="D183">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3984,10 +3979,10 @@
         <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3995,10 +3990,10 @@
         <v>131</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4006,10 +4001,10 @@
         <v>131</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4017,10 +4012,10 @@
         <v>131</v>
       </c>
       <c r="B187" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4028,10 +4023,10 @@
         <v>131</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4039,10 +4034,10 @@
         <v>131</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4050,10 +4045,10 @@
         <v>131</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4061,10 +4056,10 @@
         <v>131</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4072,10 +4067,10 @@
         <v>131</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D192">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4083,10 +4078,10 @@
         <v>131</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4094,10 +4089,10 @@
         <v>131</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D194">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4105,10 +4100,10 @@
         <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D195">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4116,10 +4111,10 @@
         <v>131</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D196">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4127,10 +4122,10 @@
         <v>131</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D197">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4138,10 +4133,10 @@
         <v>131</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D198">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4149,10 +4144,10 @@
         <v>131</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D199">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4160,10 +4155,10 @@
         <v>131</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D200">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4171,10 +4166,10 @@
         <v>131</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D201">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4182,10 +4177,10 @@
         <v>131</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D202">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4193,10 +4188,10 @@
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D203">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4204,10 +4199,10 @@
         <v>131</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D204">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4215,10 +4210,10 @@
         <v>131</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D205">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4226,10 +4221,10 @@
         <v>131</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D206">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4237,10 +4232,10 @@
         <v>131</v>
       </c>
       <c r="B207" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D207">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4248,10 +4243,10 @@
         <v>131</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D208">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4259,10 +4254,10 @@
         <v>131</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D209">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4270,10 +4265,10 @@
         <v>131</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D210">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4281,10 +4276,10 @@
         <v>131</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D211">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4292,10 +4287,10 @@
         <v>131</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D212">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4303,10 +4298,10 @@
         <v>131</v>
       </c>
       <c r="B213" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D213">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4314,10 +4309,10 @@
         <v>131</v>
       </c>
       <c r="B214" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D214">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4325,10 +4320,10 @@
         <v>131</v>
       </c>
       <c r="B215" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D215">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4336,10 +4331,10 @@
         <v>131</v>
       </c>
       <c r="B216" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D216">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4347,10 +4342,10 @@
         <v>131</v>
       </c>
       <c r="B217" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D217">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4358,10 +4353,10 @@
         <v>131</v>
       </c>
       <c r="B218" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D218">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4369,10 +4364,10 @@
         <v>131</v>
       </c>
       <c r="B219" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D219">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4380,43 +4375,43 @@
         <v>131</v>
       </c>
       <c r="B220" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D220">
-        <v>40</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B221" t="s">
+        <v>227</v>
+      </c>
+      <c r="D221">
+        <v>38</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B222" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B223" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>132</v>
-      </c>
-      <c r="B224" t="s">
-        <v>232</v>
-      </c>
-      <c r="D224">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4424,10 +4419,10 @@
         <v>132</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4435,10 +4430,10 @@
         <v>132</v>
       </c>
       <c r="B226" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4446,10 +4441,10 @@
         <v>132</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4457,10 +4452,10 @@
         <v>132</v>
       </c>
       <c r="B228" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D228">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4468,10 +4463,10 @@
         <v>132</v>
       </c>
       <c r="B229" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4479,10 +4474,10 @@
         <v>132</v>
       </c>
       <c r="B230" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4490,10 +4485,10 @@
         <v>132</v>
       </c>
       <c r="B231" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4501,10 +4496,10 @@
         <v>132</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D232">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4512,10 +4507,10 @@
         <v>132</v>
       </c>
       <c r="B233" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D233">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4523,10 +4518,10 @@
         <v>132</v>
       </c>
       <c r="B234" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D234">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4534,10 +4529,10 @@
         <v>132</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D235">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4545,10 +4540,10 @@
         <v>132</v>
       </c>
       <c r="B236" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D236">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4556,10 +4551,10 @@
         <v>132</v>
       </c>
       <c r="B237" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D237">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4567,10 +4562,10 @@
         <v>132</v>
       </c>
       <c r="B238" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D238">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4578,10 +4573,10 @@
         <v>132</v>
       </c>
       <c r="B239" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D239">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4589,10 +4584,10 @@
         <v>132</v>
       </c>
       <c r="B240" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D240">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4600,10 +4595,10 @@
         <v>132</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D241">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4611,21 +4606,21 @@
         <v>132</v>
       </c>
       <c r="B242" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D242">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>132</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>252</v>
+      <c r="B243" t="s">
+        <v>249</v>
       </c>
       <c r="D243">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4633,10 +4628,10 @@
         <v>132</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D244">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4644,21 +4639,21 @@
         <v>132</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D245">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>132</v>
       </c>
-      <c r="B246" t="s">
-        <v>255</v>
+      <c r="B246" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D246">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4666,10 +4661,10 @@
         <v>132</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D247">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4677,10 +4672,10 @@
         <v>132</v>
       </c>
       <c r="B248" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D248">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4688,10 +4683,10 @@
         <v>132</v>
       </c>
       <c r="B249" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D249">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4699,10 +4694,10 @@
         <v>132</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D250">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4710,10 +4705,10 @@
         <v>132</v>
       </c>
       <c r="B251" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D251">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4721,10 +4716,10 @@
         <v>132</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D252">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4732,10 +4727,10 @@
         <v>132</v>
       </c>
       <c r="B253" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D253">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4743,10 +4738,10 @@
         <v>132</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D254">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4754,10 +4749,10 @@
         <v>132</v>
       </c>
       <c r="B255" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D255">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4765,10 +4760,10 @@
         <v>132</v>
       </c>
       <c r="B256" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D256">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4776,10 +4771,10 @@
         <v>132</v>
       </c>
       <c r="B257" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D257">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4787,10 +4782,10 @@
         <v>132</v>
       </c>
       <c r="B258" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D258">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4798,10 +4793,10 @@
         <v>132</v>
       </c>
       <c r="B259" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D259">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4809,10 +4804,10 @@
         <v>132</v>
       </c>
       <c r="B260" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D260">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4820,10 +4815,10 @@
         <v>132</v>
       </c>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D261">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4831,10 +4826,10 @@
         <v>132</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D262">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4842,10 +4837,10 @@
         <v>132</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D263">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4853,10 +4848,10 @@
         <v>132</v>
       </c>
       <c r="B264" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D264">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4864,10 +4859,10 @@
         <v>132</v>
       </c>
       <c r="B265" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D265">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4875,10 +4870,10 @@
         <v>132</v>
       </c>
       <c r="B266" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D266">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4886,10 +4881,10 @@
         <v>132</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D267">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4897,10 +4892,10 @@
         <v>132</v>
       </c>
       <c r="B268" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D268">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4908,10 +4903,10 @@
         <v>132</v>
       </c>
       <c r="B269" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D269">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4919,10 +4914,10 @@
         <v>132</v>
       </c>
       <c r="B270" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D270">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4930,43 +4925,43 @@
         <v>132</v>
       </c>
       <c r="B271" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D271">
-        <v>50</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>132</v>
+      </c>
+      <c r="B272" t="s">
+        <v>278</v>
+      </c>
+      <c r="D272">
+        <v>48</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B273" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" t="s">
-        <v>133</v>
-      </c>
-      <c r="B275" t="s">
-        <v>283</v>
-      </c>
-      <c r="D275">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4974,10 +4969,10 @@
         <v>133</v>
       </c>
       <c r="B276" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D276">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4985,10 +4980,10 @@
         <v>133</v>
       </c>
       <c r="B277" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D277">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4996,10 +4991,10 @@
         <v>133</v>
       </c>
       <c r="B278" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D278">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5007,10 +5002,10 @@
         <v>133</v>
       </c>
       <c r="B279" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D279">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5018,10 +5013,10 @@
         <v>133</v>
       </c>
       <c r="B280" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D280">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5029,10 +5024,10 @@
         <v>133</v>
       </c>
       <c r="B281" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D281">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5040,10 +5035,10 @@
         <v>133</v>
       </c>
       <c r="B282" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D282">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5051,10 +5046,10 @@
         <v>133</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D283">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5062,10 +5057,10 @@
         <v>133</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D284">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5073,10 +5068,10 @@
         <v>133</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D285">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5084,10 +5079,10 @@
         <v>133</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D286">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5095,10 +5090,10 @@
         <v>133</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D287">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5106,10 +5101,10 @@
         <v>133</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D288">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5117,10 +5112,10 @@
         <v>133</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D289">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5128,10 +5123,10 @@
         <v>133</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D290">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5139,10 +5134,10 @@
         <v>133</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D291">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5150,10 +5145,10 @@
         <v>133</v>
       </c>
       <c r="B292" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D292">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5161,10 +5156,10 @@
         <v>133</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D293">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5172,10 +5167,10 @@
         <v>133</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D294">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5183,10 +5178,10 @@
         <v>133</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D295">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5194,10 +5189,10 @@
         <v>133</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D296">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5205,10 +5200,10 @@
         <v>133</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D297">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5216,10 +5211,10 @@
         <v>133</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D298">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5227,10 +5222,10 @@
         <v>133</v>
       </c>
       <c r="B299" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D299">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5238,10 +5233,10 @@
         <v>133</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D300">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5249,10 +5244,10 @@
         <v>133</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D301">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5260,10 +5255,10 @@
         <v>133</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D302">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5271,10 +5266,10 @@
         <v>133</v>
       </c>
       <c r="B303" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D303">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5282,10 +5277,10 @@
         <v>133</v>
       </c>
       <c r="B304" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D304">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5293,10 +5288,10 @@
         <v>133</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D305">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5304,10 +5299,10 @@
         <v>133</v>
       </c>
       <c r="B306" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D306">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5315,10 +5310,10 @@
         <v>133</v>
       </c>
       <c r="B307" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D307">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5326,10 +5321,10 @@
         <v>133</v>
       </c>
       <c r="B308" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D308">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5337,10 +5332,10 @@
         <v>133</v>
       </c>
       <c r="B309" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D309">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5348,10 +5343,10 @@
         <v>133</v>
       </c>
       <c r="B310" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D310">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5359,10 +5354,10 @@
         <v>133</v>
       </c>
       <c r="B311" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D311">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5370,10 +5365,10 @@
         <v>133</v>
       </c>
       <c r="B312" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D312">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5381,10 +5376,10 @@
         <v>133</v>
       </c>
       <c r="B313" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D313">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5392,43 +5387,43 @@
         <v>133</v>
       </c>
       <c r="B314" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D314">
-        <v>42</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>133</v>
+      </c>
+      <c r="B315" t="s">
+        <v>320</v>
+      </c>
+      <c r="D315">
+        <v>40</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B316" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B317" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D317">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" t="s">
-        <v>134</v>
-      </c>
-      <c r="B318" t="s">
-        <v>325</v>
-      </c>
-      <c r="D318">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5436,10 +5431,10 @@
         <v>134</v>
       </c>
       <c r="B319" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D319">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5447,10 +5442,10 @@
         <v>134</v>
       </c>
       <c r="B320" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D320">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5458,10 +5453,10 @@
         <v>134</v>
       </c>
       <c r="B321" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D321">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5469,10 +5464,10 @@
         <v>134</v>
       </c>
       <c r="B322" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D322">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5480,10 +5475,10 @@
         <v>134</v>
       </c>
       <c r="B323" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D323">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5491,10 +5486,10 @@
         <v>134</v>
       </c>
       <c r="B324" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D324">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5502,10 +5497,10 @@
         <v>134</v>
       </c>
       <c r="B325" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D325">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5513,10 +5508,10 @@
         <v>134</v>
       </c>
       <c r="B326" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D326">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5524,10 +5519,10 @@
         <v>134</v>
       </c>
       <c r="B327" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D327">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5535,10 +5530,10 @@
         <v>134</v>
       </c>
       <c r="B328" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D328">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5546,10 +5541,10 @@
         <v>134</v>
       </c>
       <c r="B329" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D329">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5557,10 +5552,10 @@
         <v>134</v>
       </c>
       <c r="B330" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D330">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5568,10 +5563,10 @@
         <v>134</v>
       </c>
       <c r="B331" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D331">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5579,10 +5574,10 @@
         <v>134</v>
       </c>
       <c r="B332" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D332">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5590,10 +5585,10 @@
         <v>134</v>
       </c>
       <c r="B333" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D333">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5601,10 +5596,10 @@
         <v>134</v>
       </c>
       <c r="B334" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D334">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5612,10 +5607,10 @@
         <v>134</v>
       </c>
       <c r="B335" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D335">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5623,10 +5618,10 @@
         <v>134</v>
       </c>
       <c r="B336" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D336">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5634,10 +5629,10 @@
         <v>134</v>
       </c>
       <c r="B337" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D337">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5645,10 +5640,10 @@
         <v>134</v>
       </c>
       <c r="B338" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D338">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5656,10 +5651,10 @@
         <v>134</v>
       </c>
       <c r="B339" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D339">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5667,10 +5662,10 @@
         <v>134</v>
       </c>
       <c r="B340" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D340">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5678,10 +5673,10 @@
         <v>134</v>
       </c>
       <c r="B341" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D341">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5689,10 +5684,10 @@
         <v>134</v>
       </c>
       <c r="B342" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D342">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5700,10 +5695,10 @@
         <v>134</v>
       </c>
       <c r="B343" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D343">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5711,10 +5706,10 @@
         <v>134</v>
       </c>
       <c r="B344" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D344">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5722,10 +5717,10 @@
         <v>134</v>
       </c>
       <c r="B345" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D345">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5733,10 +5728,10 @@
         <v>134</v>
       </c>
       <c r="B346" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D346">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5744,10 +5739,10 @@
         <v>134</v>
       </c>
       <c r="B347" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D347">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5755,10 +5750,10 @@
         <v>134</v>
       </c>
       <c r="B348" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D348">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5766,10 +5761,10 @@
         <v>134</v>
       </c>
       <c r="B349" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D349">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5777,10 +5772,10 @@
         <v>134</v>
       </c>
       <c r="B350" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D350">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5788,10 +5783,10 @@
         <v>134</v>
       </c>
       <c r="B351" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D351">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5799,10 +5794,10 @@
         <v>134</v>
       </c>
       <c r="B352" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D352">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5810,10 +5805,10 @@
         <v>134</v>
       </c>
       <c r="B353" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D353">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5821,10 +5816,10 @@
         <v>134</v>
       </c>
       <c r="B354" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D354">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5832,10 +5827,10 @@
         <v>134</v>
       </c>
       <c r="B355" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D355">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5843,10 +5838,10 @@
         <v>134</v>
       </c>
       <c r="B356" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D356">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5854,10 +5849,10 @@
         <v>134</v>
       </c>
       <c r="B357" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D357">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5865,10 +5860,10 @@
         <v>134</v>
       </c>
       <c r="B358" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D358">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5876,10 +5871,10 @@
         <v>134</v>
       </c>
       <c r="B359" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D359">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5887,10 +5882,10 @@
         <v>134</v>
       </c>
       <c r="B360" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D360">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5898,10 +5893,10 @@
         <v>134</v>
       </c>
       <c r="B361" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D361">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5909,10 +5904,10 @@
         <v>134</v>
       </c>
       <c r="B362" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D362">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5920,10 +5915,10 @@
         <v>134</v>
       </c>
       <c r="B363" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D363">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5931,10 +5926,10 @@
         <v>134</v>
       </c>
       <c r="B364" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D364">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5942,10 +5937,10 @@
         <v>134</v>
       </c>
       <c r="B365" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D365">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5953,10 +5948,10 @@
         <v>134</v>
       </c>
       <c r="B366" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D366">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5964,10 +5959,10 @@
         <v>134</v>
       </c>
       <c r="B367" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D367">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5975,10 +5970,10 @@
         <v>134</v>
       </c>
       <c r="B368" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D368">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5986,43 +5981,43 @@
         <v>134</v>
       </c>
       <c r="B369" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D369">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>134</v>
+      </c>
+      <c r="B370" t="s">
+        <v>374</v>
+      </c>
+      <c r="D370">
+        <v>52</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B371" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B372" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D372">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" t="s">
-        <v>135</v>
-      </c>
-      <c r="B373" t="s">
-        <v>379</v>
-      </c>
-      <c r="D373">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6030,10 +6025,10 @@
         <v>135</v>
       </c>
       <c r="B374" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D374">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6041,10 +6036,10 @@
         <v>135</v>
       </c>
       <c r="B375" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D375">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6052,43 +6047,43 @@
         <v>135</v>
       </c>
       <c r="B376" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D376">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>135</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>383</v>
+      <c r="B377" t="s">
+        <v>380</v>
       </c>
       <c r="D377">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>135</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>384</v>
+      <c r="B378" t="s">
+        <v>381</v>
       </c>
       <c r="D378">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>135</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>385</v>
+      <c r="B379" t="s">
+        <v>382</v>
       </c>
       <c r="D379">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -6096,10 +6091,10 @@
         <v>135</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D380">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -6107,43 +6102,43 @@
         <v>135</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D381">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>135</v>
       </c>
-      <c r="B382" t="s">
-        <v>388</v>
+      <c r="B382" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="D382">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>135</v>
       </c>
-      <c r="B383" t="s">
-        <v>389</v>
+      <c r="B383" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="D383">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>135</v>
       </c>
-      <c r="B384" t="s">
-        <v>390</v>
+      <c r="B384" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="D384">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -6151,10 +6146,10 @@
         <v>135</v>
       </c>
       <c r="B385" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D385">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -6162,10 +6157,10 @@
         <v>135</v>
       </c>
       <c r="B386" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D386">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -6173,10 +6168,10 @@
         <v>135</v>
       </c>
       <c r="B387" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D387">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -6184,10 +6179,10 @@
         <v>135</v>
       </c>
       <c r="B388" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D388">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -6195,10 +6190,10 @@
         <v>135</v>
       </c>
       <c r="B389" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D389">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6206,10 +6201,10 @@
         <v>135</v>
       </c>
       <c r="B390" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D390">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6217,10 +6212,10 @@
         <v>135</v>
       </c>
       <c r="B391" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D391">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -6228,10 +6223,10 @@
         <v>135</v>
       </c>
       <c r="B392" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D392">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -6239,10 +6234,10 @@
         <v>135</v>
       </c>
       <c r="B393" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D393">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6250,10 +6245,10 @@
         <v>135</v>
       </c>
       <c r="B394" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D394">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -6261,10 +6256,10 @@
         <v>135</v>
       </c>
       <c r="B395" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D395">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -6272,10 +6267,10 @@
         <v>135</v>
       </c>
       <c r="B396" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D396">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -6283,10 +6278,10 @@
         <v>135</v>
       </c>
       <c r="B397" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D397">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -6294,10 +6289,10 @@
         <v>135</v>
       </c>
       <c r="B398" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D398">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -6305,10 +6300,10 @@
         <v>135</v>
       </c>
       <c r="B399" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D399">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6316,43 +6311,43 @@
         <v>135</v>
       </c>
       <c r="B400" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D400">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>135</v>
       </c>
-      <c r="B401" s="2" t="s">
-        <v>407</v>
+      <c r="B401" t="s">
+        <v>404</v>
       </c>
       <c r="D401">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>135</v>
       </c>
-      <c r="B402" s="2" t="s">
-        <v>408</v>
+      <c r="B402" t="s">
+        <v>405</v>
       </c>
       <c r="D402">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>135</v>
       </c>
-      <c r="B403" s="2" t="s">
-        <v>409</v>
+      <c r="B403" t="s">
+        <v>406</v>
       </c>
       <c r="D403">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6360,10 +6355,10 @@
         <v>135</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D404">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6371,10 +6366,10 @@
         <v>135</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D405">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6382,10 +6377,10 @@
         <v>135</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D406">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6393,43 +6388,43 @@
         <v>135</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D407">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>135</v>
       </c>
-      <c r="B408" t="s">
-        <v>414</v>
+      <c r="B408" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="D408">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>135</v>
       </c>
-      <c r="B409" t="s">
-        <v>415</v>
+      <c r="B409" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="D409">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>135</v>
       </c>
-      <c r="B410" t="s">
-        <v>416</v>
+      <c r="B410" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="D410">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6437,10 +6432,10 @@
         <v>135</v>
       </c>
       <c r="B411" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D411">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6448,10 +6443,10 @@
         <v>135</v>
       </c>
       <c r="B412" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D412">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6459,10 +6454,10 @@
         <v>135</v>
       </c>
       <c r="B413" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D413">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6470,10 +6465,10 @@
         <v>135</v>
       </c>
       <c r="B414" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D414">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6481,10 +6476,10 @@
         <v>135</v>
       </c>
       <c r="B415" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D415">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6492,43 +6487,43 @@
         <v>135</v>
       </c>
       <c r="B416" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D416">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>135</v>
+      </c>
+      <c r="B417" t="s">
+        <v>420</v>
+      </c>
+      <c r="D417">
+        <v>44</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B418" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D418">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B419" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="D419">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" t="s">
-        <v>136</v>
-      </c>
-      <c r="B420" t="s">
-        <v>424</v>
-      </c>
-      <c r="D420">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6536,10 +6531,10 @@
         <v>136</v>
       </c>
       <c r="B421" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D421">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6547,10 +6542,10 @@
         <v>136</v>
       </c>
       <c r="B422" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="D422">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6558,10 +6553,10 @@
         <v>136</v>
       </c>
       <c r="B423" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D423">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6569,10 +6564,10 @@
         <v>136</v>
       </c>
       <c r="B424" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D424">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6580,10 +6575,10 @@
         <v>136</v>
       </c>
       <c r="B425" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D425">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6591,10 +6586,10 @@
         <v>136</v>
       </c>
       <c r="B426" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D426">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6602,10 +6597,10 @@
         <v>136</v>
       </c>
       <c r="B427" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D427">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6613,10 +6608,10 @@
         <v>136</v>
       </c>
       <c r="B428" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D428">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6624,10 +6619,10 @@
         <v>136</v>
       </c>
       <c r="B429" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D429">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6635,10 +6630,10 @@
         <v>136</v>
       </c>
       <c r="B430" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D430">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6646,10 +6641,10 @@
         <v>136</v>
       </c>
       <c r="B431" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D431">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6657,10 +6652,10 @@
         <v>136</v>
       </c>
       <c r="B432" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D432">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6668,21 +6663,21 @@
         <v>136</v>
       </c>
       <c r="B433" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D433">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>136</v>
       </c>
-      <c r="B434" s="2" t="s">
-        <v>438</v>
+      <c r="B434" t="s">
+        <v>435</v>
       </c>
       <c r="D434">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6690,10 +6685,10 @@
         <v>136</v>
       </c>
       <c r="B435" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D435">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6701,21 +6696,21 @@
         <v>136</v>
       </c>
       <c r="B436" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D436">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>136</v>
       </c>
-      <c r="B437" t="s">
-        <v>441</v>
+      <c r="B437" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="D437">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6723,10 +6718,10 @@
         <v>136</v>
       </c>
       <c r="B438" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D438">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6734,10 +6729,10 @@
         <v>136</v>
       </c>
       <c r="B439" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D439">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6745,10 +6740,10 @@
         <v>136</v>
       </c>
       <c r="B440" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D440">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6756,10 +6751,10 @@
         <v>136</v>
       </c>
       <c r="B441" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D441">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6767,10 +6762,10 @@
         <v>136</v>
       </c>
       <c r="B442" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D442">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6778,10 +6773,10 @@
         <v>136</v>
       </c>
       <c r="B443" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D443">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6789,10 +6784,10 @@
         <v>136</v>
       </c>
       <c r="B444" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D444">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6800,10 +6795,10 @@
         <v>136</v>
       </c>
       <c r="B445" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D445">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6811,10 +6806,10 @@
         <v>136</v>
       </c>
       <c r="B446" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D446">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6822,10 +6817,10 @@
         <v>136</v>
       </c>
       <c r="B447" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D447">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6833,10 +6828,10 @@
         <v>136</v>
       </c>
       <c r="B448" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D448">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6844,10 +6839,10 @@
         <v>136</v>
       </c>
       <c r="B449" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D449">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6855,10 +6850,10 @@
         <v>136</v>
       </c>
       <c r="B450" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D450">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6866,10 +6861,10 @@
         <v>136</v>
       </c>
       <c r="B451" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D451">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6877,10 +6872,10 @@
         <v>136</v>
       </c>
       <c r="B452" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D452">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6888,10 +6883,10 @@
         <v>136</v>
       </c>
       <c r="B453" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D453">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6899,10 +6894,10 @@
         <v>136</v>
       </c>
       <c r="B454" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D454">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6910,10 +6905,10 @@
         <v>136</v>
       </c>
       <c r="B455" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D455">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6921,43 +6916,43 @@
         <v>136</v>
       </c>
       <c r="B456" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D456">
-        <v>39</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" t="s">
+        <v>136</v>
+      </c>
+      <c r="B457" t="s">
+        <v>458</v>
+      </c>
+      <c r="D457">
+        <v>37</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B458" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B459" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D459">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" t="s">
-        <v>137</v>
-      </c>
-      <c r="B460" t="s">
-        <v>462</v>
-      </c>
-      <c r="D460">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6965,10 +6960,10 @@
         <v>137</v>
       </c>
       <c r="B461" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="D461">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6976,10 +6971,10 @@
         <v>137</v>
       </c>
       <c r="B462" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D462">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6987,10 +6982,10 @@
         <v>137</v>
       </c>
       <c r="B463" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D463">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6998,10 +6993,10 @@
         <v>137</v>
       </c>
       <c r="B464" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D464">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7009,10 +7004,10 @@
         <v>137</v>
       </c>
       <c r="B465" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D465">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -7020,10 +7015,10 @@
         <v>137</v>
       </c>
       <c r="B466" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D466">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -7031,10 +7026,10 @@
         <v>137</v>
       </c>
       <c r="B467" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D467">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7042,10 +7037,10 @@
         <v>137</v>
       </c>
       <c r="B468" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D468">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7053,10 +7048,10 @@
         <v>137</v>
       </c>
       <c r="B469" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D469">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -7064,10 +7059,10 @@
         <v>137</v>
       </c>
       <c r="B470" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D470">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -7075,10 +7070,10 @@
         <v>137</v>
       </c>
       <c r="B471" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D471">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -7086,10 +7081,10 @@
         <v>137</v>
       </c>
       <c r="B472" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D472">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7097,10 +7092,10 @@
         <v>137</v>
       </c>
       <c r="B473" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D473">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7108,10 +7103,10 @@
         <v>137</v>
       </c>
       <c r="B474" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D474">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7119,10 +7114,10 @@
         <v>137</v>
       </c>
       <c r="B475" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D475">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7130,10 +7125,10 @@
         <v>137</v>
       </c>
       <c r="B476" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D476">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7141,10 +7136,10 @@
         <v>137</v>
       </c>
       <c r="B477" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D477">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7152,32 +7147,32 @@
         <v>137</v>
       </c>
       <c r="B478" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D478">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>137</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>481</v>
+      <c r="B479" t="s">
+        <v>478</v>
       </c>
       <c r="D479">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>137</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>482</v>
+      <c r="B480" t="s">
+        <v>479</v>
       </c>
       <c r="D480">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7185,32 +7180,32 @@
         <v>137</v>
       </c>
       <c r="B481" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D481">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>137</v>
       </c>
-      <c r="B482" t="s">
-        <v>484</v>
+      <c r="B482" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="D482">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>137</v>
       </c>
-      <c r="B483" t="s">
-        <v>485</v>
+      <c r="B483" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="D483">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7218,10 +7213,10 @@
         <v>137</v>
       </c>
       <c r="B484" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D484">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7229,10 +7224,10 @@
         <v>137</v>
       </c>
       <c r="B485" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D485">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7240,10 +7235,10 @@
         <v>137</v>
       </c>
       <c r="B486" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D486">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7251,10 +7246,10 @@
         <v>137</v>
       </c>
       <c r="B487" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D487">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7262,10 +7257,10 @@
         <v>137</v>
       </c>
       <c r="B488" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D488">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7273,10 +7268,10 @@
         <v>137</v>
       </c>
       <c r="B489" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D489">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7284,10 +7279,10 @@
         <v>137</v>
       </c>
       <c r="B490" t="s">
-        <v>404</v>
+        <v>489</v>
       </c>
       <c r="D490">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7295,10 +7290,10 @@
         <v>137</v>
       </c>
       <c r="B491" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D491">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7306,10 +7301,10 @@
         <v>137</v>
       </c>
       <c r="B492" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D492">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7317,10 +7312,10 @@
         <v>137</v>
       </c>
       <c r="B493" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="D493">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7328,10 +7323,10 @@
         <v>137</v>
       </c>
       <c r="B494" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D494">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7339,10 +7334,10 @@
         <v>137</v>
       </c>
       <c r="B495" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D495">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7350,10 +7345,10 @@
         <v>137</v>
       </c>
       <c r="B496" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D496">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7361,10 +7356,10 @@
         <v>137</v>
       </c>
       <c r="B497" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D497">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7372,10 +7367,10 @@
         <v>137</v>
       </c>
       <c r="B498" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D498">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7383,10 +7378,10 @@
         <v>137</v>
       </c>
       <c r="B499" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D499">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7394,10 +7389,10 @@
         <v>137</v>
       </c>
       <c r="B500" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D500">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7405,10 +7400,10 @@
         <v>137</v>
       </c>
       <c r="B501" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D501">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7416,10 +7411,10 @@
         <v>137</v>
       </c>
       <c r="B502" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D502">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7427,43 +7422,43 @@
         <v>137</v>
       </c>
       <c r="B503" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D503">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" t="s">
+        <v>137</v>
+      </c>
+      <c r="B504" t="s">
+        <v>502</v>
+      </c>
+      <c r="D504">
+        <v>44</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B505" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D505">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B506" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D506">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="A507" t="s">
-        <v>138</v>
-      </c>
-      <c r="B507" t="s">
-        <v>507</v>
-      </c>
-      <c r="D507">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7471,10 +7466,10 @@
         <v>138</v>
       </c>
       <c r="B508" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D508">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7482,10 +7477,10 @@
         <v>138</v>
       </c>
       <c r="B509" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7493,10 +7488,10 @@
         <v>138</v>
       </c>
       <c r="B510" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D510">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7504,10 +7499,10 @@
         <v>138</v>
       </c>
       <c r="B511" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D511">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7515,10 +7510,10 @@
         <v>138</v>
       </c>
       <c r="B512" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D512">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7526,10 +7521,10 @@
         <v>138</v>
       </c>
       <c r="B513" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D513">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7537,10 +7532,10 @@
         <v>138</v>
       </c>
       <c r="B514" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D514">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7548,10 +7543,10 @@
         <v>138</v>
       </c>
       <c r="B515" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D515">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7559,10 +7554,10 @@
         <v>138</v>
       </c>
       <c r="B516" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D516">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7570,10 +7565,10 @@
         <v>138</v>
       </c>
       <c r="B517" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D517">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7581,10 +7576,10 @@
         <v>138</v>
       </c>
       <c r="B518" t="s">
-        <v>337</v>
+        <v>515</v>
       </c>
       <c r="D518">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7592,10 +7587,10 @@
         <v>138</v>
       </c>
       <c r="B519" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D519">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7603,10 +7598,10 @@
         <v>138</v>
       </c>
       <c r="B520" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D520">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7614,10 +7609,10 @@
         <v>138</v>
       </c>
       <c r="B521" t="s">
-        <v>520</v>
+        <v>337</v>
       </c>
       <c r="D521">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7625,10 +7620,10 @@
         <v>138</v>
       </c>
       <c r="B522" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D522">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7636,10 +7631,10 @@
         <v>138</v>
       </c>
       <c r="B523" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D523">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7647,10 +7642,10 @@
         <v>138</v>
       </c>
       <c r="B524" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D524">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7658,10 +7653,10 @@
         <v>138</v>
       </c>
       <c r="B525" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D525">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7669,10 +7664,10 @@
         <v>138</v>
       </c>
       <c r="B526" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D526">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7680,10 +7675,10 @@
         <v>138</v>
       </c>
       <c r="B527" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D527">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7691,10 +7686,10 @@
         <v>138</v>
       </c>
       <c r="B528" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D528">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7702,10 +7697,10 @@
         <v>138</v>
       </c>
       <c r="B529" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D529">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7713,10 +7708,10 @@
         <v>138</v>
       </c>
       <c r="B530" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D530">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7724,10 +7719,10 @@
         <v>138</v>
       </c>
       <c r="B531" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D531">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7735,10 +7730,10 @@
         <v>138</v>
       </c>
       <c r="B532" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D532">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7746,10 +7741,10 @@
         <v>138</v>
       </c>
       <c r="B533" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D533">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7757,10 +7752,10 @@
         <v>138</v>
       </c>
       <c r="B534" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D534">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7768,10 +7763,10 @@
         <v>138</v>
       </c>
       <c r="B535" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D535">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7779,10 +7774,10 @@
         <v>138</v>
       </c>
       <c r="B536" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D536">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7790,10 +7785,10 @@
         <v>138</v>
       </c>
       <c r="B537" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D537">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7801,10 +7796,10 @@
         <v>138</v>
       </c>
       <c r="B538" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D538">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7812,10 +7807,10 @@
         <v>138</v>
       </c>
       <c r="B539" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D539">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7823,10 +7818,10 @@
         <v>138</v>
       </c>
       <c r="B540" t="s">
-        <v>102</v>
+        <v>536</v>
       </c>
       <c r="D540">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7834,10 +7829,10 @@
         <v>138</v>
       </c>
       <c r="B541" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D541">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7845,10 +7840,10 @@
         <v>138</v>
       </c>
       <c r="B542" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D542">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -7856,21 +7851,21 @@
         <v>138</v>
       </c>
       <c r="B543" t="s">
-        <v>541</v>
+        <v>102</v>
       </c>
       <c r="D543">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>138</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>542</v>
+      <c r="B544" t="s">
+        <v>539</v>
       </c>
       <c r="D544">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -7878,10 +7873,10 @@
         <v>138</v>
       </c>
       <c r="B545" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D545">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -7889,20 +7884,53 @@
         <v>138</v>
       </c>
       <c r="B546" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D546">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>138</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D547">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" t="s">
+        <v>138</v>
+      </c>
+      <c r="B548" t="s">
+        <v>543</v>
+      </c>
+      <c r="D548">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" t="s">
+        <v>138</v>
+      </c>
+      <c r="B549" t="s">
+        <v>544</v>
+      </c>
+      <c r="D549">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" t="s">
+        <v>138</v>
+      </c>
+      <c r="B550" t="s">
         <v>545</v>
       </c>
-      <c r="D547">
+      <c r="D550">
         <v>43</v>
       </c>
     </row>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
@@ -1999,17 +1999,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D550"/>
+  <dimension ref="A1:D551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
+      <selection activeCell="D557" sqref="D557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7934,6 +7934,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="551" spans="1:4" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="632">
   <si>
     <t>CA00000001</t>
   </si>
@@ -1660,6 +1660,258 @@
   </si>
   <si>
     <t>V000007024</t>
+  </si>
+  <si>
+    <t>CA00000018</t>
+  </si>
+  <si>
+    <t>V000001500</t>
+  </si>
+  <si>
+    <t>V000001501</t>
+  </si>
+  <si>
+    <t>V000001502</t>
+  </si>
+  <si>
+    <t>V000001503</t>
+  </si>
+  <si>
+    <t>V000001505</t>
+  </si>
+  <si>
+    <t>V000001506</t>
+  </si>
+  <si>
+    <t>V000001509</t>
+  </si>
+  <si>
+    <t>V000001510</t>
+  </si>
+  <si>
+    <t>V000001511</t>
+  </si>
+  <si>
+    <t>V000001512</t>
+  </si>
+  <si>
+    <t>V000001513</t>
+  </si>
+  <si>
+    <t>V000001516</t>
+  </si>
+  <si>
+    <t>V000001518</t>
+  </si>
+  <si>
+    <t>V000001519</t>
+  </si>
+  <si>
+    <t>V000001520</t>
+  </si>
+  <si>
+    <t>V000001521</t>
+  </si>
+  <si>
+    <t>V000001522</t>
+  </si>
+  <si>
+    <t>V000001524</t>
+  </si>
+  <si>
+    <t>V000001525</t>
+  </si>
+  <si>
+    <t>V000001526</t>
+  </si>
+  <si>
+    <t>V000001530</t>
+  </si>
+  <si>
+    <t>V000001531</t>
+  </si>
+  <si>
+    <t>V000001532</t>
+  </si>
+  <si>
+    <t>V000001533</t>
+  </si>
+  <si>
+    <t>V000001534</t>
+  </si>
+  <si>
+    <t>V000001535</t>
+  </si>
+  <si>
+    <t>V000001536</t>
+  </si>
+  <si>
+    <t>CA00000019</t>
+  </si>
+  <si>
+    <t>V000001600</t>
+  </si>
+  <si>
+    <t>V000001601</t>
+  </si>
+  <si>
+    <t>V000001602</t>
+  </si>
+  <si>
+    <t>V000001604</t>
+  </si>
+  <si>
+    <t>V000001605</t>
+  </si>
+  <si>
+    <t>V000001607</t>
+  </si>
+  <si>
+    <t>V000001608</t>
+  </si>
+  <si>
+    <t>V000001609</t>
+  </si>
+  <si>
+    <t>V000001610</t>
+  </si>
+  <si>
+    <t>V000001611</t>
+  </si>
+  <si>
+    <t>V000001612</t>
+  </si>
+  <si>
+    <t>V000001613</t>
+  </si>
+  <si>
+    <t>V000001615</t>
+  </si>
+  <si>
+    <t>V000001616</t>
+  </si>
+  <si>
+    <t>V000001618</t>
+  </si>
+  <si>
+    <t>V000001620</t>
+  </si>
+  <si>
+    <t>V000001621</t>
+  </si>
+  <si>
+    <t>V000001623</t>
+  </si>
+  <si>
+    <t>V000001624</t>
+  </si>
+  <si>
+    <t>V000001625</t>
+  </si>
+  <si>
+    <t>V000001626</t>
+  </si>
+  <si>
+    <t>V000001627</t>
+  </si>
+  <si>
+    <t>V000001628</t>
+  </si>
+  <si>
+    <t>V000001629</t>
+  </si>
+  <si>
+    <t>V000001630</t>
+  </si>
+  <si>
+    <t>V000001631</t>
+  </si>
+  <si>
+    <t>V000001632</t>
+  </si>
+  <si>
+    <t>V000001633</t>
+  </si>
+  <si>
+    <t>CA00000020</t>
+  </si>
+  <si>
+    <t>V000001700</t>
+  </si>
+  <si>
+    <t>V000001702</t>
+  </si>
+  <si>
+    <t>V000001703</t>
+  </si>
+  <si>
+    <t>V000001704</t>
+  </si>
+  <si>
+    <t>V000001705</t>
+  </si>
+  <si>
+    <t>V000001706</t>
+  </si>
+  <si>
+    <t>V000001707</t>
+  </si>
+  <si>
+    <t>V000001708</t>
+  </si>
+  <si>
+    <t>V000001709</t>
+  </si>
+  <si>
+    <t>V000001710</t>
+  </si>
+  <si>
+    <t>V000001711</t>
+  </si>
+  <si>
+    <t>V000001712</t>
+  </si>
+  <si>
+    <t>V000001714</t>
+  </si>
+  <si>
+    <t>V000001715</t>
+  </si>
+  <si>
+    <t>V000001716</t>
+  </si>
+  <si>
+    <t>V000001717</t>
+  </si>
+  <si>
+    <t>V000001718</t>
+  </si>
+  <si>
+    <t>V000001719</t>
+  </si>
+  <si>
+    <t>V000001720</t>
+  </si>
+  <si>
+    <t>V000001721</t>
+  </si>
+  <si>
+    <t>V000001722</t>
+  </si>
+  <si>
+    <t>V000001723</t>
+  </si>
+  <si>
+    <t>V000001725</t>
+  </si>
+  <si>
+    <t>V000001726</t>
+  </si>
+  <si>
+    <t>V000001727</t>
+  </si>
+  <si>
+    <t>V000001728</t>
   </si>
 </sst>
 </file>
@@ -1999,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D551"/>
+  <dimension ref="A1:D635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
-      <selection activeCell="D557" sqref="D557"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="E635" sqref="E635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7935,6 +8187,897 @@
       </c>
     </row>
     <row r="551" spans="1:4" s="1" customFormat="1"/>
+    <row r="553" spans="1:4">
+      <c r="A553" t="s">
+        <v>548</v>
+      </c>
+      <c r="B553" t="s">
+        <v>549</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" t="s">
+        <v>548</v>
+      </c>
+      <c r="B554" t="s">
+        <v>550</v>
+      </c>
+      <c r="D554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" t="s">
+        <v>548</v>
+      </c>
+      <c r="B555" t="s">
+        <v>551</v>
+      </c>
+      <c r="D555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" t="s">
+        <v>548</v>
+      </c>
+      <c r="B556" t="s">
+        <v>552</v>
+      </c>
+      <c r="D556">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" t="s">
+        <v>548</v>
+      </c>
+      <c r="B557" t="s">
+        <v>553</v>
+      </c>
+      <c r="D557">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" t="s">
+        <v>548</v>
+      </c>
+      <c r="B558" t="s">
+        <v>554</v>
+      </c>
+      <c r="D558">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" t="s">
+        <v>548</v>
+      </c>
+      <c r="B559" t="s">
+        <v>555</v>
+      </c>
+      <c r="D559">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" t="s">
+        <v>548</v>
+      </c>
+      <c r="B560" t="s">
+        <v>556</v>
+      </c>
+      <c r="D560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" t="s">
+        <v>548</v>
+      </c>
+      <c r="B561" t="s">
+        <v>557</v>
+      </c>
+      <c r="D561">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" t="s">
+        <v>548</v>
+      </c>
+      <c r="B562" t="s">
+        <v>558</v>
+      </c>
+      <c r="D562">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" t="s">
+        <v>548</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D563">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" t="s">
+        <v>548</v>
+      </c>
+      <c r="B564" t="s">
+        <v>560</v>
+      </c>
+      <c r="D564">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" t="s">
+        <v>548</v>
+      </c>
+      <c r="B565" t="s">
+        <v>561</v>
+      </c>
+      <c r="D565">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" t="s">
+        <v>548</v>
+      </c>
+      <c r="B566" t="s">
+        <v>562</v>
+      </c>
+      <c r="D566">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" t="s">
+        <v>548</v>
+      </c>
+      <c r="B567" t="s">
+        <v>563</v>
+      </c>
+      <c r="D567">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" t="s">
+        <v>548</v>
+      </c>
+      <c r="B568" t="s">
+        <v>564</v>
+      </c>
+      <c r="D568">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" t="s">
+        <v>548</v>
+      </c>
+      <c r="B569" t="s">
+        <v>565</v>
+      </c>
+      <c r="D569">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" t="s">
+        <v>548</v>
+      </c>
+      <c r="B570" t="s">
+        <v>566</v>
+      </c>
+      <c r="D570">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" t="s">
+        <v>548</v>
+      </c>
+      <c r="B571" t="s">
+        <v>567</v>
+      </c>
+      <c r="D571">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" t="s">
+        <v>548</v>
+      </c>
+      <c r="B572" t="s">
+        <v>568</v>
+      </c>
+      <c r="D572">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" t="s">
+        <v>548</v>
+      </c>
+      <c r="B573" t="s">
+        <v>569</v>
+      </c>
+      <c r="D573">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" t="s">
+        <v>548</v>
+      </c>
+      <c r="B574" t="s">
+        <v>570</v>
+      </c>
+      <c r="D574">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" t="s">
+        <v>548</v>
+      </c>
+      <c r="B575" t="s">
+        <v>571</v>
+      </c>
+      <c r="D575">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" t="s">
+        <v>548</v>
+      </c>
+      <c r="B576" t="s">
+        <v>572</v>
+      </c>
+      <c r="D576">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" t="s">
+        <v>548</v>
+      </c>
+      <c r="B577" t="s">
+        <v>573</v>
+      </c>
+      <c r="D577">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" t="s">
+        <v>548</v>
+      </c>
+      <c r="B578" t="s">
+        <v>574</v>
+      </c>
+      <c r="D578">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" t="s">
+        <v>548</v>
+      </c>
+      <c r="B579" t="s">
+        <v>575</v>
+      </c>
+      <c r="D579">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" t="s">
+        <v>576</v>
+      </c>
+      <c r="B581" t="s">
+        <v>577</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" t="s">
+        <v>576</v>
+      </c>
+      <c r="B582" t="s">
+        <v>578</v>
+      </c>
+      <c r="D582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" t="s">
+        <v>576</v>
+      </c>
+      <c r="B583" t="s">
+        <v>579</v>
+      </c>
+      <c r="D583">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" t="s">
+        <v>576</v>
+      </c>
+      <c r="B584" t="s">
+        <v>580</v>
+      </c>
+      <c r="D584">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" t="s">
+        <v>576</v>
+      </c>
+      <c r="B585" t="s">
+        <v>581</v>
+      </c>
+      <c r="D585">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" t="s">
+        <v>576</v>
+      </c>
+      <c r="B586" t="s">
+        <v>582</v>
+      </c>
+      <c r="D586">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" t="s">
+        <v>576</v>
+      </c>
+      <c r="B587" t="s">
+        <v>583</v>
+      </c>
+      <c r="D587">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" t="s">
+        <v>576</v>
+      </c>
+      <c r="B588" t="s">
+        <v>584</v>
+      </c>
+      <c r="D588">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" t="s">
+        <v>576</v>
+      </c>
+      <c r="B589" t="s">
+        <v>585</v>
+      </c>
+      <c r="D589">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" t="s">
+        <v>576</v>
+      </c>
+      <c r="B590" t="s">
+        <v>586</v>
+      </c>
+      <c r="D590">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" t="s">
+        <v>576</v>
+      </c>
+      <c r="B591" t="s">
+        <v>587</v>
+      </c>
+      <c r="D591">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" t="s">
+        <v>576</v>
+      </c>
+      <c r="B592" t="s">
+        <v>588</v>
+      </c>
+      <c r="D592">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" t="s">
+        <v>576</v>
+      </c>
+      <c r="B593" t="s">
+        <v>589</v>
+      </c>
+      <c r="D593">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" t="s">
+        <v>576</v>
+      </c>
+      <c r="B594" t="s">
+        <v>590</v>
+      </c>
+      <c r="D594">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" t="s">
+        <v>576</v>
+      </c>
+      <c r="B595" t="s">
+        <v>591</v>
+      </c>
+      <c r="D595">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" t="s">
+        <v>576</v>
+      </c>
+      <c r="B596" t="s">
+        <v>592</v>
+      </c>
+      <c r="D596">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" t="s">
+        <v>576</v>
+      </c>
+      <c r="B597" t="s">
+        <v>593</v>
+      </c>
+      <c r="D597">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" t="s">
+        <v>576</v>
+      </c>
+      <c r="B598" t="s">
+        <v>594</v>
+      </c>
+      <c r="D598">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" t="s">
+        <v>576</v>
+      </c>
+      <c r="B599" t="s">
+        <v>595</v>
+      </c>
+      <c r="D599">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" t="s">
+        <v>576</v>
+      </c>
+      <c r="B600" t="s">
+        <v>596</v>
+      </c>
+      <c r="D600">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" t="s">
+        <v>576</v>
+      </c>
+      <c r="B601" t="s">
+        <v>597</v>
+      </c>
+      <c r="D601">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" t="s">
+        <v>576</v>
+      </c>
+      <c r="B602" t="s">
+        <v>598</v>
+      </c>
+      <c r="D602">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" t="s">
+        <v>576</v>
+      </c>
+      <c r="B603" t="s">
+        <v>599</v>
+      </c>
+      <c r="D603">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" t="s">
+        <v>576</v>
+      </c>
+      <c r="B604" t="s">
+        <v>600</v>
+      </c>
+      <c r="D604">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" t="s">
+        <v>576</v>
+      </c>
+      <c r="B605" t="s">
+        <v>601</v>
+      </c>
+      <c r="D605">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" t="s">
+        <v>576</v>
+      </c>
+      <c r="B606" t="s">
+        <v>602</v>
+      </c>
+      <c r="D606">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" t="s">
+        <v>576</v>
+      </c>
+      <c r="B607" t="s">
+        <v>603</v>
+      </c>
+      <c r="D607">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" t="s">
+        <v>576</v>
+      </c>
+      <c r="B608" t="s">
+        <v>604</v>
+      </c>
+      <c r="D608">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" t="s">
+        <v>605</v>
+      </c>
+      <c r="B610" t="s">
+        <v>606</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" t="s">
+        <v>605</v>
+      </c>
+      <c r="B611" t="s">
+        <v>607</v>
+      </c>
+      <c r="D611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" t="s">
+        <v>605</v>
+      </c>
+      <c r="B612" t="s">
+        <v>608</v>
+      </c>
+      <c r="D612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" t="s">
+        <v>605</v>
+      </c>
+      <c r="B613" t="s">
+        <v>609</v>
+      </c>
+      <c r="D613">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" t="s">
+        <v>605</v>
+      </c>
+      <c r="B614" t="s">
+        <v>610</v>
+      </c>
+      <c r="D614">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" t="s">
+        <v>605</v>
+      </c>
+      <c r="B615" t="s">
+        <v>611</v>
+      </c>
+      <c r="D615">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" t="s">
+        <v>605</v>
+      </c>
+      <c r="B616" t="s">
+        <v>612</v>
+      </c>
+      <c r="D616">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" t="s">
+        <v>605</v>
+      </c>
+      <c r="B617" t="s">
+        <v>613</v>
+      </c>
+      <c r="D617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" t="s">
+        <v>605</v>
+      </c>
+      <c r="B618" t="s">
+        <v>614</v>
+      </c>
+      <c r="D618">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" t="s">
+        <v>605</v>
+      </c>
+      <c r="B619" t="s">
+        <v>615</v>
+      </c>
+      <c r="D619">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" t="s">
+        <v>605</v>
+      </c>
+      <c r="B620" t="s">
+        <v>616</v>
+      </c>
+      <c r="D620">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" t="s">
+        <v>605</v>
+      </c>
+      <c r="B621" t="s">
+        <v>617</v>
+      </c>
+      <c r="D621">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" t="s">
+        <v>605</v>
+      </c>
+      <c r="B622" t="s">
+        <v>618</v>
+      </c>
+      <c r="D622">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" t="s">
+        <v>605</v>
+      </c>
+      <c r="B623" t="s">
+        <v>619</v>
+      </c>
+      <c r="D623">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" t="s">
+        <v>605</v>
+      </c>
+      <c r="B624" t="s">
+        <v>620</v>
+      </c>
+      <c r="D624">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" t="s">
+        <v>605</v>
+      </c>
+      <c r="B625" t="s">
+        <v>621</v>
+      </c>
+      <c r="D625">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" t="s">
+        <v>605</v>
+      </c>
+      <c r="B626" t="s">
+        <v>622</v>
+      </c>
+      <c r="D626">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" t="s">
+        <v>605</v>
+      </c>
+      <c r="B627" t="s">
+        <v>623</v>
+      </c>
+      <c r="D627">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" t="s">
+        <v>605</v>
+      </c>
+      <c r="B628" t="s">
+        <v>624</v>
+      </c>
+      <c r="D628">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" t="s">
+        <v>605</v>
+      </c>
+      <c r="B629" t="s">
+        <v>625</v>
+      </c>
+      <c r="D629">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" t="s">
+        <v>605</v>
+      </c>
+      <c r="B630" t="s">
+        <v>626</v>
+      </c>
+      <c r="D630">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" t="s">
+        <v>605</v>
+      </c>
+      <c r="B631" t="s">
+        <v>627</v>
+      </c>
+      <c r="D631">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" t="s">
+        <v>605</v>
+      </c>
+      <c r="B632" t="s">
+        <v>628</v>
+      </c>
+      <c r="D632">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" t="s">
+        <v>605</v>
+      </c>
+      <c r="B633" t="s">
+        <v>629</v>
+      </c>
+      <c r="D633">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" t="s">
+        <v>605</v>
+      </c>
+      <c r="B634" t="s">
+        <v>630</v>
+      </c>
+      <c r="D634">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" t="s">
+        <v>605</v>
+      </c>
+      <c r="B635" t="s">
+        <v>631</v>
+      </c>
+      <c r="D635">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="801">
   <si>
     <t>CA00000001</t>
   </si>
@@ -1912,6 +1912,513 @@
   </si>
   <si>
     <t>V000001728</t>
+  </si>
+  <si>
+    <t>CA00000021</t>
+  </si>
+  <si>
+    <t>V000001800</t>
+  </si>
+  <si>
+    <t>V000001801</t>
+  </si>
+  <si>
+    <t>V000001802</t>
+  </si>
+  <si>
+    <t>V000001804</t>
+  </si>
+  <si>
+    <t>V000001805</t>
+  </si>
+  <si>
+    <t>V000001807</t>
+  </si>
+  <si>
+    <t>V000001811</t>
+  </si>
+  <si>
+    <t>V000001812</t>
+  </si>
+  <si>
+    <t>V000001813</t>
+  </si>
+  <si>
+    <t>V000001814</t>
+  </si>
+  <si>
+    <t>V000001815</t>
+  </si>
+  <si>
+    <t>V000001816</t>
+  </si>
+  <si>
+    <t>V000001817</t>
+  </si>
+  <si>
+    <t>V000001821</t>
+  </si>
+  <si>
+    <t>V000001822</t>
+  </si>
+  <si>
+    <t>V000001823</t>
+  </si>
+  <si>
+    <t>V000001825</t>
+  </si>
+  <si>
+    <t>V000001826</t>
+  </si>
+  <si>
+    <t>V000001827</t>
+  </si>
+  <si>
+    <t>V000001828</t>
+  </si>
+  <si>
+    <t>V000001829</t>
+  </si>
+  <si>
+    <t>V000001830</t>
+  </si>
+  <si>
+    <t>V000001831</t>
+  </si>
+  <si>
+    <t>V000001832</t>
+  </si>
+  <si>
+    <t>V000001833</t>
+  </si>
+  <si>
+    <t>V000001834</t>
+  </si>
+  <si>
+    <t>V000001835</t>
+  </si>
+  <si>
+    <t>V000001836</t>
+  </si>
+  <si>
+    <t>V000001837</t>
+  </si>
+  <si>
+    <t>V000001838</t>
+  </si>
+  <si>
+    <t>V000001839</t>
+  </si>
+  <si>
+    <t>V000001840</t>
+  </si>
+  <si>
+    <t>V000001841</t>
+  </si>
+  <si>
+    <t>V000001400</t>
+  </si>
+  <si>
+    <t>V000001401</t>
+  </si>
+  <si>
+    <t>V000001402</t>
+  </si>
+  <si>
+    <t>V000001406</t>
+  </si>
+  <si>
+    <t>V000001407</t>
+  </si>
+  <si>
+    <t>V000001408</t>
+  </si>
+  <si>
+    <t>V000001411</t>
+  </si>
+  <si>
+    <t>V000001412</t>
+  </si>
+  <si>
+    <t>V000001413</t>
+  </si>
+  <si>
+    <t>V000001414</t>
+  </si>
+  <si>
+    <t>V000001415</t>
+  </si>
+  <si>
+    <t>V000001416</t>
+  </si>
+  <si>
+    <t>V000001417</t>
+  </si>
+  <si>
+    <t>V000001419</t>
+  </si>
+  <si>
+    <t>V000001426</t>
+  </si>
+  <si>
+    <t>V000001427</t>
+  </si>
+  <si>
+    <t>V000001428</t>
+  </si>
+  <si>
+    <t>V000001429</t>
+  </si>
+  <si>
+    <t>V000001430</t>
+  </si>
+  <si>
+    <t>V000001431</t>
+  </si>
+  <si>
+    <t>V000001432</t>
+  </si>
+  <si>
+    <t>V000001434</t>
+  </si>
+  <si>
+    <t>V000001435</t>
+  </si>
+  <si>
+    <t>V000001436</t>
+  </si>
+  <si>
+    <t>V000001437</t>
+  </si>
+  <si>
+    <t>V000001439</t>
+  </si>
+  <si>
+    <t>V000001440</t>
+  </si>
+  <si>
+    <t>V000001441</t>
+  </si>
+  <si>
+    <t>V000001442</t>
+  </si>
+  <si>
+    <t>CA00000017</t>
+  </si>
+  <si>
+    <t>CA00000016</t>
+  </si>
+  <si>
+    <t>V000001301</t>
+  </si>
+  <si>
+    <t>V000001303</t>
+  </si>
+  <si>
+    <t>V000001305</t>
+  </si>
+  <si>
+    <t>V000001308</t>
+  </si>
+  <si>
+    <t>V000001310</t>
+  </si>
+  <si>
+    <t>V000001316</t>
+  </si>
+  <si>
+    <t>V000001318</t>
+  </si>
+  <si>
+    <t>V000001319</t>
+  </si>
+  <si>
+    <t>V000001320</t>
+  </si>
+  <si>
+    <t>V000001325</t>
+  </si>
+  <si>
+    <t>V000001326</t>
+  </si>
+  <si>
+    <t>V000001327</t>
+  </si>
+  <si>
+    <t>V000001328</t>
+  </si>
+  <si>
+    <t>V000001329</t>
+  </si>
+  <si>
+    <t>V000001330</t>
+  </si>
+  <si>
+    <t>V000001331</t>
+  </si>
+  <si>
+    <t>V000001332</t>
+  </si>
+  <si>
+    <t>V000001334</t>
+  </si>
+  <si>
+    <t>V000001335</t>
+  </si>
+  <si>
+    <t>V000001336</t>
+  </si>
+  <si>
+    <t>V000001337</t>
+  </si>
+  <si>
+    <t>V000001339</t>
+  </si>
+  <si>
+    <t>V000001340</t>
+  </si>
+  <si>
+    <t>V000001341</t>
+  </si>
+  <si>
+    <t>V000001343</t>
+  </si>
+  <si>
+    <t>V000001344</t>
+  </si>
+  <si>
+    <t>V000001346</t>
+  </si>
+  <si>
+    <t>V000001347</t>
+  </si>
+  <si>
+    <t>V000001348</t>
+  </si>
+  <si>
+    <t>V000001349</t>
+  </si>
+  <si>
+    <t>V000001350</t>
+  </si>
+  <si>
+    <t>V000001351</t>
+  </si>
+  <si>
+    <t>V000001352</t>
+  </si>
+  <si>
+    <t>V000001355</t>
+  </si>
+  <si>
+    <t>V000001360</t>
+  </si>
+  <si>
+    <t>V000001361</t>
+  </si>
+  <si>
+    <t>V000001362</t>
+  </si>
+  <si>
+    <t>V000001363</t>
+  </si>
+  <si>
+    <t>V000001364</t>
+  </si>
+  <si>
+    <t>V000001365</t>
+  </si>
+  <si>
+    <t>V000001366</t>
+  </si>
+  <si>
+    <t>V000001367</t>
+  </si>
+  <si>
+    <t>CA00000015</t>
+  </si>
+  <si>
+    <t>V000001200</t>
+  </si>
+  <si>
+    <t>V000001201</t>
+  </si>
+  <si>
+    <t>V000001203</t>
+  </si>
+  <si>
+    <t>V000001204</t>
+  </si>
+  <si>
+    <t>V000001205</t>
+  </si>
+  <si>
+    <t>V000001206</t>
+  </si>
+  <si>
+    <t>V000001207</t>
+  </si>
+  <si>
+    <t>V000001209</t>
+  </si>
+  <si>
+    <t>V000001210</t>
+  </si>
+  <si>
+    <t>V000001211</t>
+  </si>
+  <si>
+    <t>V000001213</t>
+  </si>
+  <si>
+    <t>V000001216</t>
+  </si>
+  <si>
+    <t>V000001219</t>
+  </si>
+  <si>
+    <t>V000001220</t>
+  </si>
+  <si>
+    <t>V000001221</t>
+  </si>
+  <si>
+    <t>V000001222</t>
+  </si>
+  <si>
+    <t>V000001223</t>
+  </si>
+  <si>
+    <t>V000001224</t>
+  </si>
+  <si>
+    <t>V000001225</t>
+  </si>
+  <si>
+    <t>V000001226</t>
+  </si>
+  <si>
+    <t>V000001227</t>
+  </si>
+  <si>
+    <t>V000001230</t>
+  </si>
+  <si>
+    <t>V000001231</t>
+  </si>
+  <si>
+    <t>V000001232</t>
+  </si>
+  <si>
+    <t>V000001233</t>
+  </si>
+  <si>
+    <t>CA00000014</t>
+  </si>
+  <si>
+    <t>V000001100</t>
+  </si>
+  <si>
+    <t>V000001101</t>
+  </si>
+  <si>
+    <t>V000001102</t>
+  </si>
+  <si>
+    <t>V000001103</t>
+  </si>
+  <si>
+    <t>V000001104</t>
+  </si>
+  <si>
+    <t>V000001106</t>
+  </si>
+  <si>
+    <t>V000001107</t>
+  </si>
+  <si>
+    <t>V000001110</t>
+  </si>
+  <si>
+    <t>V000001111</t>
+  </si>
+  <si>
+    <t>V000001113</t>
+  </si>
+  <si>
+    <t>V000001114</t>
+  </si>
+  <si>
+    <t>V000001115</t>
+  </si>
+  <si>
+    <t>V000001116</t>
+  </si>
+  <si>
+    <t>V000001117</t>
+  </si>
+  <si>
+    <t>V000001118</t>
+  </si>
+  <si>
+    <t>V000001120</t>
+  </si>
+  <si>
+    <t>V000001121</t>
+  </si>
+  <si>
+    <t>V000001122</t>
+  </si>
+  <si>
+    <t>V000001124</t>
+  </si>
+  <si>
+    <t>V000001125</t>
+  </si>
+  <si>
+    <t>V000001126</t>
+  </si>
+  <si>
+    <t>V000001127</t>
+  </si>
+  <si>
+    <t>V000001129</t>
+  </si>
+  <si>
+    <t>V000001130</t>
+  </si>
+  <si>
+    <t>V000001133</t>
+  </si>
+  <si>
+    <t>V000001136</t>
+  </si>
+  <si>
+    <t>V000001137</t>
+  </si>
+  <si>
+    <t>V000001139</t>
+  </si>
+  <si>
+    <t>V000001140</t>
+  </si>
+  <si>
+    <t>V000001141</t>
+  </si>
+  <si>
+    <t>V000001142</t>
+  </si>
+  <si>
+    <t>V000001143</t>
+  </si>
+  <si>
+    <t>V000001151</t>
+  </si>
+  <si>
+    <t>V000001152</t>
+  </si>
+  <si>
+    <t>V000001153</t>
   </si>
 </sst>
 </file>
@@ -2251,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D635"/>
+  <dimension ref="A1:D805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="E635" sqref="E635"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="D552" sqref="D552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8186,896 +8693,2700 @@
         <v>43</v>
       </c>
     </row>
-    <row r="551" spans="1:4" s="1" customFormat="1"/>
+    <row r="552" spans="1:4">
+      <c r="A552" t="s">
+        <v>765</v>
+      </c>
+      <c r="B552" t="s">
+        <v>766</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+    </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B553" t="s">
-        <v>549</v>
+        <v>767</v>
       </c>
       <c r="D553">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B554" t="s">
-        <v>550</v>
+        <v>768</v>
       </c>
       <c r="D554">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B555" t="s">
-        <v>551</v>
+        <v>769</v>
       </c>
       <c r="D555">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B556" t="s">
-        <v>552</v>
+        <v>770</v>
       </c>
       <c r="D556">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B557" t="s">
-        <v>553</v>
+        <v>771</v>
       </c>
       <c r="D557">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B558" t="s">
-        <v>554</v>
+        <v>772</v>
       </c>
       <c r="D558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B559" t="s">
-        <v>555</v>
+        <v>773</v>
       </c>
       <c r="D559">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B560" t="s">
-        <v>556</v>
+        <v>774</v>
       </c>
       <c r="D560">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B561" t="s">
-        <v>557</v>
+        <v>775</v>
       </c>
       <c r="D561">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B562" t="s">
-        <v>558</v>
+        <v>776</v>
       </c>
       <c r="D562">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" t="s">
-        <v>548</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>559</v>
+        <v>765</v>
+      </c>
+      <c r="B563" t="s">
+        <v>777</v>
       </c>
       <c r="D563">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B564" t="s">
-        <v>560</v>
+        <v>778</v>
       </c>
       <c r="D564">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B565" t="s">
-        <v>561</v>
+        <v>779</v>
       </c>
       <c r="D565">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B566" t="s">
-        <v>562</v>
+        <v>780</v>
       </c>
       <c r="D566">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B567" t="s">
-        <v>563</v>
+        <v>781</v>
       </c>
       <c r="D567">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B568" t="s">
-        <v>564</v>
+        <v>782</v>
       </c>
       <c r="D568">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B569" t="s">
-        <v>565</v>
+        <v>783</v>
       </c>
       <c r="D569">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B570" t="s">
-        <v>566</v>
+        <v>784</v>
       </c>
       <c r="D570">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B571" t="s">
-        <v>567</v>
+        <v>785</v>
       </c>
       <c r="D571">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B572" t="s">
-        <v>568</v>
+        <v>786</v>
       </c>
       <c r="D572">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B573" t="s">
-        <v>569</v>
+        <v>787</v>
       </c>
       <c r="D573">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B574" t="s">
-        <v>570</v>
+        <v>788</v>
       </c>
       <c r="D574">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B575" t="s">
-        <v>571</v>
+        <v>789</v>
       </c>
       <c r="D575">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B576" t="s">
-        <v>572</v>
+        <v>790</v>
       </c>
       <c r="D576">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B577" t="s">
-        <v>573</v>
+        <v>791</v>
       </c>
       <c r="D577">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B578" t="s">
-        <v>574</v>
+        <v>792</v>
       </c>
       <c r="D578">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" t="s">
-        <v>548</v>
+        <v>765</v>
       </c>
       <c r="B579" t="s">
-        <v>575</v>
+        <v>793</v>
       </c>
       <c r="D579">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" t="s">
+        <v>765</v>
+      </c>
+      <c r="B580" t="s">
+        <v>794</v>
+      </c>
+      <c r="D580">
+        <v>29</v>
       </c>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" t="s">
-        <v>576</v>
+        <v>765</v>
       </c>
       <c r="B581" t="s">
-        <v>577</v>
+        <v>795</v>
       </c>
       <c r="D581">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" t="s">
-        <v>576</v>
+        <v>765</v>
       </c>
       <c r="B582" t="s">
-        <v>578</v>
+        <v>796</v>
       </c>
       <c r="D582">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" t="s">
-        <v>576</v>
+        <v>765</v>
       </c>
       <c r="B583" t="s">
-        <v>579</v>
+        <v>797</v>
       </c>
       <c r="D583">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" t="s">
-        <v>576</v>
+        <v>765</v>
       </c>
       <c r="B584" t="s">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="D584">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" t="s">
-        <v>576</v>
+        <v>765</v>
       </c>
       <c r="B585" t="s">
-        <v>581</v>
+        <v>799</v>
       </c>
       <c r="D585">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" t="s">
-        <v>576</v>
+        <v>765</v>
       </c>
       <c r="B586" t="s">
-        <v>582</v>
+        <v>800</v>
       </c>
       <c r="D586">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587" t="s">
-        <v>576</v>
-      </c>
-      <c r="B587" t="s">
-        <v>583</v>
-      </c>
-      <c r="D587">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B588" t="s">
-        <v>584</v>
+        <v>740</v>
       </c>
       <c r="D588">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B589" t="s">
-        <v>585</v>
+        <v>741</v>
       </c>
       <c r="D589">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B590" t="s">
-        <v>586</v>
+        <v>742</v>
       </c>
       <c r="D590">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B591" t="s">
-        <v>587</v>
+        <v>743</v>
       </c>
       <c r="D591">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B592" t="s">
-        <v>588</v>
+        <v>744</v>
       </c>
       <c r="D592">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B593" t="s">
-        <v>589</v>
+        <v>745</v>
       </c>
       <c r="D593">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B594" t="s">
-        <v>590</v>
+        <v>746</v>
       </c>
       <c r="D594">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B595" t="s">
-        <v>591</v>
+        <v>747</v>
       </c>
       <c r="D595">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B596" t="s">
-        <v>592</v>
+        <v>748</v>
       </c>
       <c r="D596">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B597" t="s">
-        <v>593</v>
+        <v>749</v>
       </c>
       <c r="D597">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B598" t="s">
-        <v>594</v>
+        <v>750</v>
       </c>
       <c r="D598">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B599" t="s">
-        <v>595</v>
+        <v>751</v>
       </c>
       <c r="D599">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B600" t="s">
-        <v>596</v>
+        <v>752</v>
       </c>
       <c r="D600">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B601" t="s">
-        <v>597</v>
+        <v>753</v>
       </c>
       <c r="D601">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B602" t="s">
-        <v>598</v>
+        <v>754</v>
       </c>
       <c r="D602">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B603" t="s">
-        <v>599</v>
+        <v>755</v>
       </c>
       <c r="D603">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B604" t="s">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="D604">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B605" t="s">
-        <v>601</v>
+        <v>757</v>
       </c>
       <c r="D605">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B606" t="s">
-        <v>602</v>
+        <v>758</v>
       </c>
       <c r="D606">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B607" t="s">
-        <v>603</v>
+        <v>759</v>
       </c>
       <c r="D607">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="B608" t="s">
-        <v>604</v>
+        <v>760</v>
       </c>
       <c r="D608">
-        <v>28</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" t="s">
+        <v>739</v>
+      </c>
+      <c r="B609" t="s">
+        <v>761</v>
+      </c>
+      <c r="D609">
+        <v>22</v>
       </c>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" t="s">
-        <v>605</v>
+        <v>739</v>
       </c>
       <c r="B610" t="s">
-        <v>606</v>
+        <v>762</v>
       </c>
       <c r="D610">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>605</v>
+        <v>739</v>
       </c>
       <c r="B611" t="s">
-        <v>607</v>
+        <v>763</v>
       </c>
       <c r="D611">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" t="s">
-        <v>605</v>
+        <v>739</v>
       </c>
       <c r="B612" t="s">
-        <v>608</v>
+        <v>764</v>
       </c>
       <c r="D612">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4">
-      <c r="A613" t="s">
-        <v>605</v>
-      </c>
-      <c r="B613" t="s">
-        <v>609</v>
-      </c>
-      <c r="D613">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="614" spans="1:4">
       <c r="A614" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B614" t="s">
-        <v>610</v>
+        <v>697</v>
       </c>
       <c r="D614">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B615" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="D615">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B616" t="s">
-        <v>612</v>
+        <v>699</v>
       </c>
       <c r="D616">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B617" t="s">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="D617">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B618" t="s">
-        <v>614</v>
+        <v>701</v>
       </c>
       <c r="D618">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B619" t="s">
-        <v>615</v>
+        <v>702</v>
       </c>
       <c r="D619">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B620" t="s">
-        <v>616</v>
+        <v>703</v>
       </c>
       <c r="D620">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B621" t="s">
-        <v>617</v>
+        <v>704</v>
       </c>
       <c r="D621">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B622" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="D622">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B623" t="s">
-        <v>619</v>
+        <v>706</v>
       </c>
       <c r="D623">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B624" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="D624">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B625" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="D625">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B626" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="D626">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B627" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
       <c r="D627">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B628" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="D628">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B629" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="D629">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B630" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="D630">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B631" t="s">
-        <v>627</v>
+        <v>714</v>
       </c>
       <c r="D631">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B632" t="s">
-        <v>628</v>
+        <v>715</v>
       </c>
       <c r="D632">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B633" t="s">
-        <v>629</v>
+        <v>716</v>
       </c>
       <c r="D633">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="B634" t="s">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="D634">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" t="s">
+        <v>696</v>
+      </c>
+      <c r="B635" t="s">
+        <v>718</v>
+      </c>
+      <c r="D635">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" t="s">
+        <v>696</v>
+      </c>
+      <c r="B636" t="s">
+        <v>719</v>
+      </c>
+      <c r="D636">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4">
+      <c r="A637" t="s">
+        <v>696</v>
+      </c>
+      <c r="B637" t="s">
+        <v>720</v>
+      </c>
+      <c r="D637">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4">
+      <c r="A638" t="s">
+        <v>696</v>
+      </c>
+      <c r="B638" t="s">
+        <v>721</v>
+      </c>
+      <c r="D638">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4">
+      <c r="A639" t="s">
+        <v>696</v>
+      </c>
+      <c r="B639" t="s">
+        <v>722</v>
+      </c>
+      <c r="D639">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4">
+      <c r="A640" t="s">
+        <v>696</v>
+      </c>
+      <c r="B640" t="s">
+        <v>723</v>
+      </c>
+      <c r="D640">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" t="s">
+        <v>696</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D641">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" t="s">
+        <v>696</v>
+      </c>
+      <c r="B642" t="s">
+        <v>725</v>
+      </c>
+      <c r="D642">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" t="s">
+        <v>696</v>
+      </c>
+      <c r="B643" t="s">
+        <v>726</v>
+      </c>
+      <c r="D643">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" t="s">
+        <v>696</v>
+      </c>
+      <c r="B644" t="s">
+        <v>727</v>
+      </c>
+      <c r="D644">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" t="s">
+        <v>696</v>
+      </c>
+      <c r="B645" t="s">
+        <v>728</v>
+      </c>
+      <c r="D645">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" t="s">
+        <v>696</v>
+      </c>
+      <c r="B646" t="s">
+        <v>729</v>
+      </c>
+      <c r="D646">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" t="s">
+        <v>696</v>
+      </c>
+      <c r="B647" t="s">
+        <v>730</v>
+      </c>
+      <c r="D647">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" t="s">
+        <v>696</v>
+      </c>
+      <c r="B648" t="s">
+        <v>731</v>
+      </c>
+      <c r="D648">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4">
+      <c r="A649" t="s">
+        <v>696</v>
+      </c>
+      <c r="B649" t="s">
+        <v>732</v>
+      </c>
+      <c r="D649">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4">
+      <c r="A650" t="s">
+        <v>696</v>
+      </c>
+      <c r="B650" t="s">
+        <v>733</v>
+      </c>
+      <c r="D650">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4">
+      <c r="A651" t="s">
+        <v>696</v>
+      </c>
+      <c r="B651" t="s">
+        <v>734</v>
+      </c>
+      <c r="D651">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4">
+      <c r="A652" t="s">
+        <v>696</v>
+      </c>
+      <c r="B652" t="s">
+        <v>735</v>
+      </c>
+      <c r="D652">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" t="s">
+        <v>696</v>
+      </c>
+      <c r="B653" t="s">
+        <v>736</v>
+      </c>
+      <c r="D653">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" t="s">
+        <v>696</v>
+      </c>
+      <c r="B654" t="s">
+        <v>737</v>
+      </c>
+      <c r="D654">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" t="s">
+        <v>696</v>
+      </c>
+      <c r="B655" t="s">
+        <v>738</v>
+      </c>
+      <c r="D655">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" s="1" customFormat="1"/>
+    <row r="658" spans="1:4">
+      <c r="A658" t="s">
+        <v>695</v>
+      </c>
+      <c r="B658" t="s">
+        <v>666</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" t="s">
+        <v>695</v>
+      </c>
+      <c r="B659" t="s">
+        <v>667</v>
+      </c>
+      <c r="D659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" t="s">
+        <v>695</v>
+      </c>
+      <c r="B660" t="s">
+        <v>668</v>
+      </c>
+      <c r="D660">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" t="s">
+        <v>695</v>
+      </c>
+      <c r="B661" t="s">
+        <v>669</v>
+      </c>
+      <c r="D661">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" t="s">
+        <v>695</v>
+      </c>
+      <c r="B662" t="s">
+        <v>670</v>
+      </c>
+      <c r="D662">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" t="s">
+        <v>695</v>
+      </c>
+      <c r="B663" t="s">
+        <v>671</v>
+      </c>
+      <c r="D663">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" t="s">
+        <v>695</v>
+      </c>
+      <c r="B664" t="s">
+        <v>672</v>
+      </c>
+      <c r="D664">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" t="s">
+        <v>695</v>
+      </c>
+      <c r="B665" t="s">
+        <v>673</v>
+      </c>
+      <c r="D665">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" t="s">
+        <v>695</v>
+      </c>
+      <c r="B666" t="s">
+        <v>674</v>
+      </c>
+      <c r="D666">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" t="s">
+        <v>695</v>
+      </c>
+      <c r="B667" t="s">
+        <v>675</v>
+      </c>
+      <c r="D667">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" t="s">
+        <v>695</v>
+      </c>
+      <c r="B668" t="s">
+        <v>676</v>
+      </c>
+      <c r="D668">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" t="s">
+        <v>695</v>
+      </c>
+      <c r="B669" t="s">
+        <v>677</v>
+      </c>
+      <c r="D669">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" t="s">
+        <v>695</v>
+      </c>
+      <c r="B670" t="s">
+        <v>678</v>
+      </c>
+      <c r="D670">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" t="s">
+        <v>695</v>
+      </c>
+      <c r="B671" t="s">
+        <v>679</v>
+      </c>
+      <c r="D671">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" t="s">
+        <v>695</v>
+      </c>
+      <c r="B672" t="s">
+        <v>680</v>
+      </c>
+      <c r="D672">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" t="s">
+        <v>695</v>
+      </c>
+      <c r="B673" t="s">
+        <v>681</v>
+      </c>
+      <c r="D673">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" t="s">
+        <v>695</v>
+      </c>
+      <c r="B674" t="s">
+        <v>682</v>
+      </c>
+      <c r="D674">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" t="s">
+        <v>695</v>
+      </c>
+      <c r="B675" t="s">
+        <v>683</v>
+      </c>
+      <c r="D675">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" t="s">
+        <v>695</v>
+      </c>
+      <c r="B676" t="s">
+        <v>684</v>
+      </c>
+      <c r="D676">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" t="s">
+        <v>695</v>
+      </c>
+      <c r="B677" t="s">
+        <v>685</v>
+      </c>
+      <c r="D677">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" t="s">
+        <v>695</v>
+      </c>
+      <c r="B678" t="s">
+        <v>686</v>
+      </c>
+      <c r="D678">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" t="s">
+        <v>695</v>
+      </c>
+      <c r="B679" t="s">
+        <v>687</v>
+      </c>
+      <c r="D679">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" t="s">
+        <v>695</v>
+      </c>
+      <c r="B680" t="s">
+        <v>688</v>
+      </c>
+      <c r="D680">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" t="s">
+        <v>695</v>
+      </c>
+      <c r="B681" t="s">
+        <v>689</v>
+      </c>
+      <c r="D681">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" t="s">
+        <v>695</v>
+      </c>
+      <c r="B682" t="s">
+        <v>690</v>
+      </c>
+      <c r="D682">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" t="s">
+        <v>695</v>
+      </c>
+      <c r="B683" t="s">
+        <v>691</v>
+      </c>
+      <c r="D683">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" t="s">
+        <v>695</v>
+      </c>
+      <c r="B684" t="s">
+        <v>692</v>
+      </c>
+      <c r="D684">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" t="s">
+        <v>695</v>
+      </c>
+      <c r="B685" t="s">
+        <v>693</v>
+      </c>
+      <c r="D685">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" t="s">
+        <v>695</v>
+      </c>
+      <c r="B686" t="s">
+        <v>694</v>
+      </c>
+      <c r="D686">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" t="s">
+        <v>548</v>
+      </c>
+      <c r="B689" t="s">
+        <v>549</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" t="s">
+        <v>548</v>
+      </c>
+      <c r="B690" t="s">
+        <v>550</v>
+      </c>
+      <c r="D690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" t="s">
+        <v>548</v>
+      </c>
+      <c r="B691" t="s">
+        <v>551</v>
+      </c>
+      <c r="D691">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" t="s">
+        <v>548</v>
+      </c>
+      <c r="B692" t="s">
+        <v>552</v>
+      </c>
+      <c r="D692">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" t="s">
+        <v>548</v>
+      </c>
+      <c r="B693" t="s">
+        <v>553</v>
+      </c>
+      <c r="D693">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" t="s">
+        <v>548</v>
+      </c>
+      <c r="B694" t="s">
+        <v>554</v>
+      </c>
+      <c r="D694">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" t="s">
+        <v>548</v>
+      </c>
+      <c r="B695" t="s">
+        <v>555</v>
+      </c>
+      <c r="D695">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" t="s">
+        <v>548</v>
+      </c>
+      <c r="B696" t="s">
+        <v>556</v>
+      </c>
+      <c r="D696">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" t="s">
+        <v>548</v>
+      </c>
+      <c r="B697" t="s">
+        <v>557</v>
+      </c>
+      <c r="D697">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" t="s">
+        <v>548</v>
+      </c>
+      <c r="B698" t="s">
+        <v>558</v>
+      </c>
+      <c r="D698">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" t="s">
+        <v>548</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D699">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" t="s">
+        <v>548</v>
+      </c>
+      <c r="B700" t="s">
+        <v>560</v>
+      </c>
+      <c r="D700">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" t="s">
+        <v>548</v>
+      </c>
+      <c r="B701" t="s">
+        <v>561</v>
+      </c>
+      <c r="D701">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" t="s">
+        <v>548</v>
+      </c>
+      <c r="B702" t="s">
+        <v>562</v>
+      </c>
+      <c r="D702">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" t="s">
+        <v>548</v>
+      </c>
+      <c r="B703" t="s">
+        <v>563</v>
+      </c>
+      <c r="D703">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" t="s">
+        <v>548</v>
+      </c>
+      <c r="B704" t="s">
+        <v>564</v>
+      </c>
+      <c r="D704">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" t="s">
+        <v>548</v>
+      </c>
+      <c r="B705" t="s">
+        <v>565</v>
+      </c>
+      <c r="D705">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" t="s">
+        <v>548</v>
+      </c>
+      <c r="B706" t="s">
+        <v>566</v>
+      </c>
+      <c r="D706">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" t="s">
+        <v>548</v>
+      </c>
+      <c r="B707" t="s">
+        <v>567</v>
+      </c>
+      <c r="D707">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" t="s">
+        <v>548</v>
+      </c>
+      <c r="B708" t="s">
+        <v>568</v>
+      </c>
+      <c r="D708">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" t="s">
+        <v>548</v>
+      </c>
+      <c r="B709" t="s">
+        <v>569</v>
+      </c>
+      <c r="D709">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" t="s">
+        <v>548</v>
+      </c>
+      <c r="B710" t="s">
+        <v>570</v>
+      </c>
+      <c r="D710">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" t="s">
+        <v>548</v>
+      </c>
+      <c r="B711" t="s">
+        <v>571</v>
+      </c>
+      <c r="D711">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" t="s">
+        <v>548</v>
+      </c>
+      <c r="B712" t="s">
+        <v>572</v>
+      </c>
+      <c r="D712">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" t="s">
+        <v>548</v>
+      </c>
+      <c r="B713" t="s">
+        <v>573</v>
+      </c>
+      <c r="D713">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" t="s">
+        <v>548</v>
+      </c>
+      <c r="B714" t="s">
+        <v>574</v>
+      </c>
+      <c r="D714">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" t="s">
+        <v>548</v>
+      </c>
+      <c r="B715" t="s">
+        <v>575</v>
+      </c>
+      <c r="D715">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" t="s">
+        <v>576</v>
+      </c>
+      <c r="B717" t="s">
+        <v>577</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" t="s">
+        <v>576</v>
+      </c>
+      <c r="B718" t="s">
+        <v>578</v>
+      </c>
+      <c r="D718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" t="s">
+        <v>576</v>
+      </c>
+      <c r="B719" t="s">
+        <v>579</v>
+      </c>
+      <c r="D719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" t="s">
+        <v>576</v>
+      </c>
+      <c r="B720" t="s">
+        <v>580</v>
+      </c>
+      <c r="D720">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" t="s">
+        <v>576</v>
+      </c>
+      <c r="B721" t="s">
+        <v>581</v>
+      </c>
+      <c r="D721">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" t="s">
+        <v>576</v>
+      </c>
+      <c r="B722" t="s">
+        <v>582</v>
+      </c>
+      <c r="D722">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" t="s">
+        <v>576</v>
+      </c>
+      <c r="B723" t="s">
+        <v>583</v>
+      </c>
+      <c r="D723">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" t="s">
+        <v>576</v>
+      </c>
+      <c r="B724" t="s">
+        <v>584</v>
+      </c>
+      <c r="D724">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" t="s">
+        <v>576</v>
+      </c>
+      <c r="B725" t="s">
+        <v>585</v>
+      </c>
+      <c r="D725">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" t="s">
+        <v>576</v>
+      </c>
+      <c r="B726" t="s">
+        <v>586</v>
+      </c>
+      <c r="D726">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" t="s">
+        <v>576</v>
+      </c>
+      <c r="B727" t="s">
+        <v>587</v>
+      </c>
+      <c r="D727">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" t="s">
+        <v>576</v>
+      </c>
+      <c r="B728" t="s">
+        <v>588</v>
+      </c>
+      <c r="D728">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" t="s">
+        <v>576</v>
+      </c>
+      <c r="B729" t="s">
+        <v>589</v>
+      </c>
+      <c r="D729">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" t="s">
+        <v>576</v>
+      </c>
+      <c r="B730" t="s">
+        <v>590</v>
+      </c>
+      <c r="D730">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" t="s">
+        <v>576</v>
+      </c>
+      <c r="B731" t="s">
+        <v>591</v>
+      </c>
+      <c r="D731">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" t="s">
+        <v>576</v>
+      </c>
+      <c r="B732" t="s">
+        <v>592</v>
+      </c>
+      <c r="D732">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" t="s">
+        <v>576</v>
+      </c>
+      <c r="B733" t="s">
+        <v>593</v>
+      </c>
+      <c r="D733">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" t="s">
+        <v>576</v>
+      </c>
+      <c r="B734" t="s">
+        <v>594</v>
+      </c>
+      <c r="D734">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" t="s">
+        <v>576</v>
+      </c>
+      <c r="B735" t="s">
+        <v>595</v>
+      </c>
+      <c r="D735">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" t="s">
+        <v>576</v>
+      </c>
+      <c r="B736" t="s">
+        <v>596</v>
+      </c>
+      <c r="D736">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" t="s">
+        <v>576</v>
+      </c>
+      <c r="B737" t="s">
+        <v>597</v>
+      </c>
+      <c r="D737">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" t="s">
+        <v>576</v>
+      </c>
+      <c r="B738" t="s">
+        <v>598</v>
+      </c>
+      <c r="D738">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" t="s">
+        <v>576</v>
+      </c>
+      <c r="B739" t="s">
+        <v>599</v>
+      </c>
+      <c r="D739">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" t="s">
+        <v>576</v>
+      </c>
+      <c r="B740" t="s">
+        <v>600</v>
+      </c>
+      <c r="D740">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" t="s">
+        <v>576</v>
+      </c>
+      <c r="B741" t="s">
+        <v>601</v>
+      </c>
+      <c r="D741">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" t="s">
+        <v>576</v>
+      </c>
+      <c r="B742" t="s">
+        <v>602</v>
+      </c>
+      <c r="D742">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" t="s">
+        <v>576</v>
+      </c>
+      <c r="B743" t="s">
+        <v>603</v>
+      </c>
+      <c r="D743">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" t="s">
+        <v>576</v>
+      </c>
+      <c r="B744" t="s">
+        <v>604</v>
+      </c>
+      <c r="D744">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" t="s">
         <v>605</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B746" t="s">
+        <v>606</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" t="s">
+        <v>605</v>
+      </c>
+      <c r="B747" t="s">
+        <v>607</v>
+      </c>
+      <c r="D747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" t="s">
+        <v>605</v>
+      </c>
+      <c r="B748" t="s">
+        <v>608</v>
+      </c>
+      <c r="D748">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" t="s">
+        <v>605</v>
+      </c>
+      <c r="B749" t="s">
+        <v>609</v>
+      </c>
+      <c r="D749">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" t="s">
+        <v>605</v>
+      </c>
+      <c r="B750" t="s">
+        <v>610</v>
+      </c>
+      <c r="D750">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" t="s">
+        <v>605</v>
+      </c>
+      <c r="B751" t="s">
+        <v>611</v>
+      </c>
+      <c r="D751">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" t="s">
+        <v>605</v>
+      </c>
+      <c r="B752" t="s">
+        <v>612</v>
+      </c>
+      <c r="D752">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" t="s">
+        <v>605</v>
+      </c>
+      <c r="B753" t="s">
+        <v>613</v>
+      </c>
+      <c r="D753">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" t="s">
+        <v>605</v>
+      </c>
+      <c r="B754" t="s">
+        <v>614</v>
+      </c>
+      <c r="D754">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" t="s">
+        <v>605</v>
+      </c>
+      <c r="B755" t="s">
+        <v>615</v>
+      </c>
+      <c r="D755">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" t="s">
+        <v>605</v>
+      </c>
+      <c r="B756" t="s">
+        <v>616</v>
+      </c>
+      <c r="D756">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" t="s">
+        <v>605</v>
+      </c>
+      <c r="B757" t="s">
+        <v>617</v>
+      </c>
+      <c r="D757">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" t="s">
+        <v>605</v>
+      </c>
+      <c r="B758" t="s">
+        <v>618</v>
+      </c>
+      <c r="D758">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" t="s">
+        <v>605</v>
+      </c>
+      <c r="B759" t="s">
+        <v>619</v>
+      </c>
+      <c r="D759">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" t="s">
+        <v>605</v>
+      </c>
+      <c r="B760" t="s">
+        <v>620</v>
+      </c>
+      <c r="D760">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" t="s">
+        <v>605</v>
+      </c>
+      <c r="B761" t="s">
+        <v>621</v>
+      </c>
+      <c r="D761">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" t="s">
+        <v>605</v>
+      </c>
+      <c r="B762" t="s">
+        <v>622</v>
+      </c>
+      <c r="D762">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" t="s">
+        <v>605</v>
+      </c>
+      <c r="B763" t="s">
+        <v>623</v>
+      </c>
+      <c r="D763">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" t="s">
+        <v>605</v>
+      </c>
+      <c r="B764" t="s">
+        <v>624</v>
+      </c>
+      <c r="D764">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" t="s">
+        <v>605</v>
+      </c>
+      <c r="B765" t="s">
+        <v>625</v>
+      </c>
+      <c r="D765">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" t="s">
+        <v>605</v>
+      </c>
+      <c r="B766" t="s">
+        <v>626</v>
+      </c>
+      <c r="D766">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" t="s">
+        <v>605</v>
+      </c>
+      <c r="B767" t="s">
+        <v>627</v>
+      </c>
+      <c r="D767">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" t="s">
+        <v>605</v>
+      </c>
+      <c r="B768" t="s">
+        <v>628</v>
+      </c>
+      <c r="D768">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" t="s">
+        <v>605</v>
+      </c>
+      <c r="B769" t="s">
+        <v>629</v>
+      </c>
+      <c r="D769">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" t="s">
+        <v>605</v>
+      </c>
+      <c r="B770" t="s">
+        <v>630</v>
+      </c>
+      <c r="D770">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" t="s">
+        <v>605</v>
+      </c>
+      <c r="B771" t="s">
         <v>631</v>
       </c>
-      <c r="D635">
+      <c r="D771">
         <v>26</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" t="s">
+        <v>632</v>
+      </c>
+      <c r="B773" t="s">
+        <v>633</v>
+      </c>
+      <c r="D773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" t="s">
+        <v>632</v>
+      </c>
+      <c r="B774" t="s">
+        <v>634</v>
+      </c>
+      <c r="D774">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" t="s">
+        <v>632</v>
+      </c>
+      <c r="B775" t="s">
+        <v>635</v>
+      </c>
+      <c r="D775">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" t="s">
+        <v>632</v>
+      </c>
+      <c r="B776" t="s">
+        <v>636</v>
+      </c>
+      <c r="D776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" t="s">
+        <v>632</v>
+      </c>
+      <c r="B777" t="s">
+        <v>637</v>
+      </c>
+      <c r="D777">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" t="s">
+        <v>632</v>
+      </c>
+      <c r="B778" t="s">
+        <v>638</v>
+      </c>
+      <c r="D778">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" t="s">
+        <v>632</v>
+      </c>
+      <c r="B779" t="s">
+        <v>639</v>
+      </c>
+      <c r="D779">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" t="s">
+        <v>632</v>
+      </c>
+      <c r="B780" t="s">
+        <v>640</v>
+      </c>
+      <c r="D780">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" t="s">
+        <v>632</v>
+      </c>
+      <c r="B781" t="s">
+        <v>641</v>
+      </c>
+      <c r="D781">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" t="s">
+        <v>632</v>
+      </c>
+      <c r="B782" t="s">
+        <v>642</v>
+      </c>
+      <c r="D782">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" t="s">
+        <v>632</v>
+      </c>
+      <c r="B783" t="s">
+        <v>643</v>
+      </c>
+      <c r="D783">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" t="s">
+        <v>632</v>
+      </c>
+      <c r="B784" t="s">
+        <v>644</v>
+      </c>
+      <c r="D784">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" t="s">
+        <v>632</v>
+      </c>
+      <c r="B785" t="s">
+        <v>645</v>
+      </c>
+      <c r="D785">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" t="s">
+        <v>632</v>
+      </c>
+      <c r="B786" t="s">
+        <v>646</v>
+      </c>
+      <c r="D786">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" t="s">
+        <v>632</v>
+      </c>
+      <c r="B787" t="s">
+        <v>647</v>
+      </c>
+      <c r="D787">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" t="s">
+        <v>632</v>
+      </c>
+      <c r="B788" t="s">
+        <v>648</v>
+      </c>
+      <c r="D788">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" t="s">
+        <v>632</v>
+      </c>
+      <c r="B789" t="s">
+        <v>649</v>
+      </c>
+      <c r="D789">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" t="s">
+        <v>632</v>
+      </c>
+      <c r="B790" t="s">
+        <v>650</v>
+      </c>
+      <c r="D790">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" t="s">
+        <v>632</v>
+      </c>
+      <c r="B791" t="s">
+        <v>651</v>
+      </c>
+      <c r="D791">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" t="s">
+        <v>632</v>
+      </c>
+      <c r="B792" t="s">
+        <v>652</v>
+      </c>
+      <c r="D792">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" t="s">
+        <v>632</v>
+      </c>
+      <c r="B793" t="s">
+        <v>653</v>
+      </c>
+      <c r="D793">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" t="s">
+        <v>632</v>
+      </c>
+      <c r="B794" t="s">
+        <v>654</v>
+      </c>
+      <c r="D794">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" t="s">
+        <v>632</v>
+      </c>
+      <c r="B795" t="s">
+        <v>655</v>
+      </c>
+      <c r="D795">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="A796" t="s">
+        <v>632</v>
+      </c>
+      <c r="B796" t="s">
+        <v>656</v>
+      </c>
+      <c r="D796">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" t="s">
+        <v>632</v>
+      </c>
+      <c r="B797" t="s">
+        <v>657</v>
+      </c>
+      <c r="D797">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" t="s">
+        <v>632</v>
+      </c>
+      <c r="B798" t="s">
+        <v>658</v>
+      </c>
+      <c r="D798">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4">
+      <c r="A799" t="s">
+        <v>632</v>
+      </c>
+      <c r="B799" t="s">
+        <v>659</v>
+      </c>
+      <c r="D799">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4">
+      <c r="A800" t="s">
+        <v>632</v>
+      </c>
+      <c r="B800" t="s">
+        <v>660</v>
+      </c>
+      <c r="D800">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" t="s">
+        <v>632</v>
+      </c>
+      <c r="B801" t="s">
+        <v>661</v>
+      </c>
+      <c r="D801">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" t="s">
+        <v>632</v>
+      </c>
+      <c r="B802" t="s">
+        <v>662</v>
+      </c>
+      <c r="D802">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" t="s">
+        <v>632</v>
+      </c>
+      <c r="B803" t="s">
+        <v>663</v>
+      </c>
+      <c r="D803">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="A804" t="s">
+        <v>632</v>
+      </c>
+      <c r="B804" t="s">
+        <v>664</v>
+      </c>
+      <c r="D804">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="A805" t="s">
+        <v>632</v>
+      </c>
+      <c r="B805" t="s">
+        <v>665</v>
+      </c>
+      <c r="D805">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
